--- a/KeywordExtraction/Results_Detailed Accuracy/detailedAccuracy.xlsx
+++ b/KeywordExtraction/Results_Detailed Accuracy/detailedAccuracy.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="258">
   <si>
     <t>Original Text</t>
   </si>
@@ -25,238 +25,769 @@
     <t>Confidence Level</t>
   </si>
   <si>
-    <t>hey guys welcome back so today</t>
-  </si>
-  <si>
-    <t>I thought is a full body workout</t>
-  </si>
-  <si>
-    <t>that's gonna work multiple muscle groups at the same time</t>
-  </si>
-  <si>
-    <t>it's also gonna help you to burn fat</t>
-  </si>
-  <si>
-    <t>this workout is part of a lean dance program and you can find the full schedule over here</t>
-  </si>
-  <si>
-    <t>now don't forget to snap some progress photos and videos so you can share it with the rest of us and also hit that thumbs up button subscribe internal caches</t>
-  </si>
-  <si>
-    <t>and let's get started</t>
-  </si>
-  <si>
-    <t>we have 24 exercises today</t>
-  </si>
-  <si>
-    <t>most exercises are 30 seconds with five seconds</t>
-  </si>
-  <si>
-    <t>rest in between</t>
-  </si>
-  <si>
-    <t>let's start with butt kickers (3 second silence) kick up your legs behind you fast load and bring up the speed for low impact you can just take it (20 second silence) slow (3 second silence) now with lunch tab lunch slightly to one side and touch your toe with your opposite hand (30 second silence) now</t>
-  </si>
-  <si>
-    <t>we have snowboarding jump squats</t>
-  </si>
-  <si>
-    <t>Luis squats and take a 90 degrees</t>
-  </si>
-  <si>
-    <t>jump to the other side</t>
-  </si>
-  <si>
-    <t>then do another squat and repeat for low impact you can just do the (21 second silence) squat (4 second silence) get ready for some high knees</t>
-  </si>
-  <si>
-    <t>bring your knee up to a hip level and get your core and do it as fast as you can</t>
-  </si>
-  <si>
-    <t>you can do it for low impact</t>
-  </si>
-  <si>
-    <t>just raise the knee up without the jump (24 second silence) now we have double hop burpees</t>
-  </si>
-  <si>
-    <t>starting high playing then jumbo feet in and out and eat again</t>
-  </si>
-  <si>
-    <t>then get up and do another jump off the ground for low impact just do burpees with other job (23 second silence)</t>
-  </si>
-  <si>
-    <t>now we have jumping jacks</t>
-  </si>
-  <si>
-    <t>let's do this as fast as you can</t>
-  </si>
-  <si>
-    <t>and make sure your coils tight work</t>
-  </si>
-  <si>
-    <t>those muscles (27 second silence)</t>
-  </si>
-  <si>
-    <t>now we have squat with oblique</t>
-  </si>
-  <si>
-    <t>crunch for one whole minute squat down and do a twister punch as you get up</t>
-  </si>
-  <si>
-    <t>this works your legs</t>
-  </si>
-  <si>
-    <t>butt and abs at the same (2 second silence) time (29 second silence) super amazing</t>
-  </si>
-  <si>
-    <t>all right now we have a 15 seconds break and you can take a longer break if you want to</t>
-  </si>
-  <si>
-    <t>we have push up toe tap next</t>
-  </si>
-  <si>
-    <t>start with push up and then touch your toe with your opposite hand</t>
-  </si>
-  <si>
-    <t>if you can't do a regular push up you can start with just toe tap only that eventually you can add some push ups or you can try</t>
-  </si>
-  <si>
-    <t>knee push ups (9 second silence) now (18 second silence) flip around and have your elbow resting on a mat</t>
-  </si>
-  <si>
-    <t>we are doing bicycles next</t>
-  </si>
-  <si>
-    <t>this works your abs</t>
-  </si>
-  <si>
-    <t>so keep pushing (27 second silence)</t>
-  </si>
-  <si>
-    <t>now we have up and down with two jacks make sure your core is engaged</t>
-  </si>
-  <si>
-    <t>come on guys you can do it</t>
-  </si>
-  <si>
-    <t>(29 second silence)</t>
-  </si>
-  <si>
-    <t>now we have be up with straight leg crunch</t>
-  </si>
-  <si>
-    <t>try your best to do this in good form and I hope your ass is on fire right now</t>
-  </si>
-  <si>
-    <t>(27 second silence) mountain climbers is next</t>
-  </si>
-  <si>
-    <t>tighten up their ass and crank up the speed guys</t>
-  </si>
-  <si>
-    <t>we're halfway through the workout</t>
-  </si>
-  <si>
-    <t>let's smash this (27 second silence) next we side plank with a kick down tabletop with the Cape start in a site playing then</t>
-  </si>
-  <si>
-    <t>kick the top light in front of you</t>
-  </si>
-  <si>
-    <t>then bring the leg back and get into a tabletop position and kick the other leg up touching your hand</t>
-  </si>
-  <si>
-    <t>if this is too hot you can do a side plank hole (18 second silence) now</t>
-  </si>
-  <si>
-    <t>let's do the same on the other side do it</t>
-  </si>
-  <si>
-    <t>slow and steady</t>
-  </si>
-  <si>
-    <t>if you need to the exercise (29 second silence) now we have walking plank</t>
-  </si>
-  <si>
-    <t>walk both legs and hands a site to site</t>
-  </si>
-  <si>
-    <t>make sure your butt is not poking up and squeeze those abs (27 second silence)</t>
-  </si>
-  <si>
-    <t>let's take a quick 15 second break</t>
-  </si>
-  <si>
-    <t>you can also take a longer break</t>
-  </si>
-  <si>
-    <t>if you want to</t>
-  </si>
-  <si>
-    <t>(7 second silence)</t>
-  </si>
-  <si>
-    <t>let's do some squats oblique crunch for another 30 seconds</t>
-  </si>
-  <si>
-    <t>squat low guys work those legs and back and also your abs (26 second silence) now squat a little and take a little hop with one leg to the side for low impact</t>
-  </si>
-  <si>
-    <t>you can just take a step without the hop (28 second silence)</t>
-  </si>
-  <si>
-    <t>we're shuffle crunch next shuffle to one side and crunch and then to the other side you can do just a crunch only for the low impact version (26 second silence) next work in</t>
-  </si>
-  <si>
-    <t>Mount jump and bring both of the legs out and then in do it fast but make sure you are doing it in good form core tight back neutral and all muscles activate it for low impact</t>
-  </si>
-  <si>
-    <t>just bring one leg out at one time and bring them back</t>
-  </si>
-  <si>
-    <t>(6 second silence) in (13 second silence)</t>
-  </si>
-  <si>
-    <t>now let's do some standing crunches</t>
-  </si>
-  <si>
-    <t>we are almost done with the workout</t>
-  </si>
-  <si>
-    <t>guys keep pushing (29 second silence) we have lateral lunge</t>
-  </si>
-  <si>
-    <t>we've jumped next</t>
-  </si>
-  <si>
-    <t>bring one leg to the side and lash down then climb back up to the center and jump up below impact just two letter lunch only without the jump (24 second silence)</t>
-  </si>
-  <si>
-    <t>let's do the same on the other side</t>
-  </si>
-  <si>
-    <t>(33 second silence) we're plank will show the tap next do it fast and keep your core engaged</t>
-  </si>
-  <si>
-    <t>try not to sway too much and we have one more exercise to go</t>
-  </si>
-  <si>
-    <t>let's finish this workout (24 second silence) the final exercises</t>
-  </si>
-  <si>
-    <t>Heine bring up your knee up to hips level</t>
-  </si>
-  <si>
-    <t>do it as fast as you can</t>
-  </si>
-  <si>
-    <t>core tight and we'll only have a couple of more seconds to (24 second silence) go</t>
-  </si>
-  <si>
-    <t>that's the workout guys who've done well don't forget to smash that like button</t>
-  </si>
-  <si>
-    <t>subscribe internal applications so that you don't miss out on my new program and I'll see you in the next workout</t>
+    <t>hey everybody it's your personal trainer coach</t>
+  </si>
+  <si>
+    <t>&lt;unk&gt; here from has fake</t>
+  </si>
+  <si>
+    <t>and i'm claudia</t>
+  </si>
+  <si>
+    <t>and this is our beginner weight training routine</t>
+  </si>
+  <si>
+    <t>this routine is great for both men and women of a beginner fitness level</t>
+  </si>
+  <si>
+    <t>the only equipment required for this workout is a pair of dumbbells now</t>
+  </si>
+  <si>
+    <t>that weight of the dumbbells is going to be totally determined by your current fitness level</t>
+  </si>
+  <si>
+    <t>just remember it's much better to start light and work your way up than the other way around the only only other equipment that you may want for</t>
+  </si>
+  <si>
+    <t>this workout is a chair or a box for some of the modified movements</t>
+  </si>
+  <si>
+    <t>we're going to do the whole thing with you</t>
+  </si>
+  <si>
+    <t>ready to get this thing going all right we're going to start with either a dumbbell &lt;unk&gt;</t>
+  </si>
+  <si>
+    <t>or a dumbbell &lt;unk&gt;</t>
+  </si>
+  <si>
+    <t>so if you want to do the easier modified versions you go and follow claudia</t>
+  </si>
+  <si>
+    <t>she's going to be using one dumbbell</t>
+  </si>
+  <si>
+    <t>i'm going to use two</t>
+  </si>
+  <si>
+    <t>so that's the main difference</t>
+  </si>
+  <si>
+    <t>i'm going to squeeze these together and i'm going to pull back and claudia is just going to &lt;unk&gt;</t>
+  </si>
+  <si>
+    <t>her fingers and pull back either way</t>
+  </si>
+  <si>
+    <t>we're both pulling back on our elbows</t>
+  </si>
+  <si>
+    <t>keeping those elbows tucked in nice and tight to the body pulling back we're keeping our core tight and straight and our upper body is on a &lt;unk&gt;</t>
+  </si>
+  <si>
+    <t>degree angle</t>
+  </si>
+  <si>
+    <t>now we're not going to count any repetitions today</t>
+  </si>
+  <si>
+    <t>i just want you to try to perform as many moves as you can in allotted time period work at your own pace but at the same time be sure to push yourself because nobody else can do it for you</t>
+  </si>
+  <si>
+    <t>three nice work keep it going pulling back on those elbows keeping them tight to your body in five four three two and one okay</t>
+  </si>
+  <si>
+    <t>we're going to go to the ground for the next one</t>
+  </si>
+  <si>
+    <t>it's going to be a combo movement</t>
+  </si>
+  <si>
+    <t>we're going to need both weights for this one</t>
+  </si>
+  <si>
+    <t>we're going to do a hip up plus chest press</t>
+  </si>
+  <si>
+    <t>we're going to drive off our heels and at the same time we're going to press the dumbbell straight up and back down getting a lot of different body parts worked in this one</t>
+  </si>
+  <si>
+    <t>so we're getting your hamstrings your &lt;unk&gt;</t>
+  </si>
+  <si>
+    <t>your lower back your abs just shoulders triceps</t>
+  </si>
+  <si>
+    <t>the list goes on but it's a very efficient movement getting a lot of work in in a short period of time drive off those heels</t>
+  </si>
+  <si>
+    <t>squeeze the gluts up at the top</t>
+  </si>
+  <si>
+    <t>try your best not to &lt;unk&gt;</t>
+  </si>
+  <si>
+    <t>your back to just come up until your upper body is in this nice straight line and make sure not to bounce your arms off the ground either nice work breathe one right into the next moving at a pace that you feel comfortable with you got it almost there</t>
+  </si>
+  <si>
+    <t>let's go five more seconds on this one and four three two one and done okay</t>
+  </si>
+  <si>
+    <t>we're on to our feet for the next one need both weights again</t>
+  </si>
+  <si>
+    <t>we're going to either do a stiff leg &lt;unk&gt;</t>
+  </si>
+  <si>
+    <t>plus shrug or claudia is going to show you an ar</t>
+  </si>
+  <si>
+    <t>deal with chance for romanian &lt;unk&gt;</t>
+  </si>
+  <si>
+    <t>i didn't make that up shrug either way</t>
+  </si>
+  <si>
+    <t>we're going to put our weight back in our hips</t>
+  </si>
+  <si>
+    <t>little bend the knee</t>
+  </si>
+  <si>
+    <t>i'm going to go all the way down</t>
+  </si>
+  <si>
+    <t>and i'm going to bring my hips forward and shrug claudia's just going to come</t>
+  </si>
+  <si>
+    <t>and bring her hands just below our knees and then repeat that same shrug</t>
+  </si>
+  <si>
+    <t>so we're driving our hips backwards</t>
+  </si>
+  <si>
+    <t>all the way up hips forward</t>
+  </si>
+  <si>
+    <t>and then shrug bringing your shoulders up to your ears</t>
+  </si>
+  <si>
+    <t>feel that stretching your hamstrings</t>
+  </si>
+  <si>
+    <t>if you're not feeling a stretch in the back of your leg then i want to make sure you drive in those hips back just a little bit in those knees and hips</t>
+  </si>
+  <si>
+    <t>go back again</t>
+  </si>
+  <si>
+    <t>another combo movement this one feet in hamstrings &lt;unk&gt;</t>
+  </si>
+  <si>
+    <t>lower back and your traps good and notice how both of us are keeping our backs</t>
+  </si>
+  <si>
+    <t>nice and straight on this movement so we're not breaking that straight line and punching over but keeping our back straight while we're kicking those hips back you got it almost done with this one five four three two and last one zero nice okay</t>
+  </si>
+  <si>
+    <t>so we're going to move on to some shoulder presses next</t>
+  </si>
+  <si>
+    <t>i'm gonna grab my box over here</t>
+  </si>
+  <si>
+    <t>claudia's going to grab our box</t>
+  </si>
+  <si>
+    <t>and i'm going to do this</t>
+  </si>
+  <si>
+    <t>one from a standing position so from the box</t>
+  </si>
+  <si>
+    <t>it's a little easier standing a little harder standing it forces me to use a little bit more stability and a little bit more core but overall very comparable movements</t>
+  </si>
+  <si>
+    <t>you decide which one is right for you if you don't feel comfortable the overhead quite yet grab a seat full range of motion on this one all the way up all the way down</t>
+  </si>
+  <si>
+    <t>stay nice and under control you want to fling or swing the dumbbells around keep your core tight</t>
+  </si>
+  <si>
+    <t>this is a strength training routine so we don't want to</t>
+  </si>
+  <si>
+    <t>i know you said work at your own pace</t>
+  </si>
+  <si>
+    <t>but we definitely don't want to make this a cardio and just start pumping out correct exactly right if you using a weight that you can just do &lt;unk&gt;</t>
+  </si>
+  <si>
+    <t>reps in this &lt;unk&gt;</t>
+  </si>
+  <si>
+    <t>second time period</t>
+  </si>
+  <si>
+    <t>then you up the weight nice okay not much time left on this one</t>
+  </si>
+  <si>
+    <t>(2 second silence) and five four</t>
+  </si>
+  <si>
+    <t>three two and one</t>
+  </si>
+  <si>
+    <t>nice all right shake the arm</t>
+  </si>
+  <si>
+    <t>move this out of the way and we're going to move into a dumbbell curl so we're gonna hit those biceps next working on the gun show &lt;unk&gt;</t>
+  </si>
+  <si>
+    <t>got to go and show her tank top on tonight with those guns anyway</t>
+  </si>
+  <si>
+    <t>firing my wife's guns okay</t>
+  </si>
+  <si>
+    <t>so we're going to do a curl</t>
+  </si>
+  <si>
+    <t>both palms come up</t>
+  </si>
+  <si>
+    <t>we're going to curl those &lt;unk&gt;</t>
+  </si>
+  <si>
+    <t>in on the way up and then all the way back down again</t>
+  </si>
+  <si>
+    <t>this one's under control</t>
+  </si>
+  <si>
+    <t>so that means we're not swinging up and flinging them back down right it defeats the purpose but instead i feel that time under tension feel those muscles contracting all the way up and all the way down you got it good closing give you a nice side view</t>
+  </si>
+  <si>
+    <t>keep those shoulders back and square</t>
+  </si>
+  <si>
+    <t>mm &lt;unk&gt; you got it</t>
+  </si>
+  <si>
+    <t>we're breathing just &lt;unk&gt;</t>
+  </si>
+  <si>
+    <t>more seconds left on this one flight through you got it and three two one and zero are moving to the lower body</t>
+  </si>
+  <si>
+    <t>claudia is going to grab her box or if you have a chair that works as well if you want to the modified version</t>
+  </si>
+  <si>
+    <t>i'm also going to lose a dumbbell here</t>
+  </si>
+  <si>
+    <t>yeah &lt;unk&gt; exactly she's only gonna use one way good point so she's going to do a goblet squats</t>
+  </si>
+  <si>
+    <t>she notice how she's holding the way up two hands and i got a new thumbs out</t>
+  </si>
+  <si>
+    <t>i'm not gonna do a dumbbell squat just with at my side so i'm going to go up</t>
+  </si>
+  <si>
+    <t>be able to get a little bit deeper</t>
+  </si>
+  <si>
+    <t>then doing the chair or box squat</t>
+  </si>
+  <si>
+    <t>but either way we're both bending at the hips first driving those hips back and then coming down until our hips are parallel to the ground</t>
+  </si>
+  <si>
+    <t>all the way up all the way down and i'm just touching the chair and coming right back up</t>
+  </si>
+  <si>
+    <t>i'm not sitting not resting exactly</t>
+  </si>
+  <si>
+    <t>i make sure you're bouncing</t>
+  </si>
+  <si>
+    <t>that's the other thing right</t>
+  </si>
+  <si>
+    <t>correct on swing off of this</t>
+  </si>
+  <si>
+    <t>if you guys still shave you hear the seat either or squatting make sure you keep those knees out</t>
+  </si>
+  <si>
+    <t>don't allow them to break your compress in nice work</t>
+  </si>
+  <si>
+    <t>how much left on this one</t>
+  </si>
+  <si>
+    <t>i know your legs are probably starting to feel it</t>
+  </si>
+  <si>
+    <t>i didn't forget about you</t>
+  </si>
+  <si>
+    <t>we got five four three two and one done okay</t>
+  </si>
+  <si>
+    <t>we're going to move on to a dumbbell &lt;unk&gt;</t>
+  </si>
+  <si>
+    <t>kickback we're gonna hit those triceps</t>
+  </si>
+  <si>
+    <t>next save movement really just to put a mix up your weight find</t>
+  </si>
+  <si>
+    <t>what weight works for you on this one</t>
+  </si>
+  <si>
+    <t>so we're bent over our elbows are up</t>
+  </si>
+  <si>
+    <t>we're only going to bend at those elbows not moving the whole arm</t>
+  </si>
+  <si>
+    <t>keep your core tight and at the top</t>
+  </si>
+  <si>
+    <t>you're squeezing that back of the arm squeezing your triceps up at the top nice work notice</t>
+  </si>
+  <si>
+    <t>we're using that elbow as a lever</t>
+  </si>
+  <si>
+    <t>so we're not moving that upper arm</t>
+  </si>
+  <si>
+    <t>just bend at the elbow so i mean but as you're not going here right now singing no swinging because now all the sudden all the other muscles are taking over we just want to isolate the triceps on this one you got it ten more seconds</t>
+  </si>
+  <si>
+    <t>that's it guys are doing great</t>
+  </si>
+  <si>
+    <t>thank you so much for joining us today and for all of your hard work and three two one and done</t>
+  </si>
+  <si>
+    <t>okay we're going to the ground losing my weights body's going to lose your weights</t>
+  </si>
+  <si>
+    <t>i'm going to keep mine though we're going to do a dumbbell reach crunch so from a crunch position we're going to our feet on the ground</t>
+  </si>
+  <si>
+    <t>we're going to reach up to the ceiling</t>
+  </si>
+  <si>
+    <t>we're going our shoulder blades</t>
+  </si>
+  <si>
+    <t>off the ground and come back down to earth contracting the abs up at the top reaching up big and high you see i'm using my weights making it more difficult claudia</t>
+  </si>
+  <si>
+    <t>she's just using her body weight</t>
+  </si>
+  <si>
+    <t>you could also just use one way if you wanted to straight so again</t>
+  </si>
+  <si>
+    <t>it's all about making this your own coming back repeating it getting a little bit better every single time and that's how we improve that consistency</t>
+  </si>
+  <si>
+    <t>nice work reaching up</t>
+  </si>
+  <si>
+    <t>don't bounce off the ground stay under control you got it nice work nice work</t>
+  </si>
+  <si>
+    <t>we got 10 more seconds on this one beyond those abs start to work</t>
+  </si>
+  <si>
+    <t>that's a good thing</t>
+  </si>
+  <si>
+    <t>that's the feeling of improvement right there and three two one and zero okay</t>
+  </si>
+  <si>
+    <t>we're going to rest</t>
+  </si>
+  <si>
+    <t>that's the end of the first round</t>
+  </si>
+  <si>
+    <t>we got one more to go all right</t>
+  </si>
+  <si>
+    <t>so it's a quick &lt;unk&gt;</t>
+  </si>
+  <si>
+    <t>second break that doesn't give you much time</t>
+  </si>
+  <si>
+    <t>if you want</t>
+  </si>
+  <si>
+    <t>feel free to grab some water shake it loose</t>
+  </si>
+  <si>
+    <t>take a couple deep breaths</t>
+  </si>
+  <si>
+    <t>we're going to get right back into it all right so we got ten seconds</t>
+  </si>
+  <si>
+    <t>i'm going to grab my dumbbells</t>
+  </si>
+  <si>
+    <t>we're getting ready</t>
+  </si>
+  <si>
+    <t>we're starting with the row</t>
+  </si>
+  <si>
+    <t>we're gonna doing my &lt;unk&gt; row &lt;unk&gt;</t>
+  </si>
+  <si>
+    <t>doing her t row and here we go</t>
+  </si>
+  <si>
+    <t>we're pulling back at those elbows keeping our core nice and tight and if you're wondering why we didn't take a longer break even though we're beginners that's because the workout specifically designed to allow some muscles to rest while others are working so right now our backs working but at the same time our chest may be resting allows us to get a lot done in a short period of time again pulling back on those elbows anytime</t>
+  </si>
+  <si>
+    <t>you're doing a row you want to be like you have a string attached to your elbows and you're just pulling back on it</t>
+  </si>
+  <si>
+    <t>just be sure to keep that core tight also exactly</t>
+  </si>
+  <si>
+    <t>you don't want your back getting loose or allowing your abs to relax almost there on this one</t>
+  </si>
+  <si>
+    <t>let's go five four three two and one all right going to the ground you need both weights for this next one doing that</t>
+  </si>
+  <si>
+    <t>hip up plus chest press</t>
+  </si>
+  <si>
+    <t>so we're driving off the heels and squeezing our &lt;unk&gt;</t>
+  </si>
+  <si>
+    <t>and pressing up at the same time nice work and again on any of these</t>
+  </si>
+  <si>
+    <t>don't feel like you have to use the same weight for all of them</t>
+  </si>
+  <si>
+    <t>feel free to adjust the way as you go through it</t>
+  </si>
+  <si>
+    <t>start with your best gas</t>
+  </si>
+  <si>
+    <t>but don't just keep the weight if it's not if you're not able to complete the reps in a safe manner or the other way if it's not challenging you make sure to up the weight so you can get that full benefit nice work driving off the heels pressing straight up keep it up guys almost there and five four three two one zero</t>
+  </si>
+  <si>
+    <t>we're up on our feet and try to keep the pace up a little bit faster for the second round</t>
+  </si>
+  <si>
+    <t>because we know what we're doing we're going to stiff leg &lt;unk&gt;</t>
+  </si>
+  <si>
+    <t>or our &lt;unk&gt;</t>
+  </si>
+  <si>
+    <t>shrug kick back</t>
+  </si>
+  <si>
+    <t>blow your knees hop in the truck taking the weight back on our hips feeling that stretch and up and shrug nice work</t>
+  </si>
+  <si>
+    <t>this one really hits that whole &lt;unk&gt;</t>
+  </si>
+  <si>
+    <t>chain so important i always say in your front are the show muscles in the back of the go muscles basically means all your power and real athleticism comes from your backside</t>
+  </si>
+  <si>
+    <t>come on keep it up you got it nice work not many left</t>
+  </si>
+  <si>
+    <t>let's go five more seconds</t>
+  </si>
+  <si>
+    <t>that's it and four three two one and zero finishing strong</t>
+  </si>
+  <si>
+    <t>okay grab your seat beam</t>
+  </si>
+  <si>
+    <t>got one so</t>
+  </si>
+  <si>
+    <t>if you're doing your shoulder press say get seated feel free to grab it otherwise kicking them up getting right into it bring those dumbbells down to about in line with your ears</t>
+  </si>
+  <si>
+    <t>maybe just a little bit lower really depends on your flexibility and what feels comfortable</t>
+  </si>
+  <si>
+    <t>don't take it to a place</t>
+  </si>
+  <si>
+    <t>it feels awkward with shoulders</t>
+  </si>
+  <si>
+    <t>nice work core stays tight</t>
+  </si>
+  <si>
+    <t>doesn't matter either one whichever one you're doing still stays tight nice work</t>
+  </si>
+  <si>
+    <t>this is about that point in the workout</t>
+  </si>
+  <si>
+    <t>where you start to really feel it it starts to kick in and it becomes all mental right now not even physical</t>
+  </si>
+  <si>
+    <t>it's all up in your head</t>
+  </si>
+  <si>
+    <t>it's all that mental &lt;unk&gt;</t>
+  </si>
+  <si>
+    <t>and grip that's going to keep you moving fighting</t>
+  </si>
+  <si>
+    <t>through rep by rep</t>
+  </si>
+  <si>
+    <t>let's go come on and five four three two one zero</t>
+  </si>
+  <si>
+    <t>ahh all right feeling good moving on to a dumbbell curls</t>
+  </si>
+  <si>
+    <t>we're hitting the biceps next</t>
+  </si>
+  <si>
+    <t>let's get it both curling at the same time curling those &lt;unk&gt;</t>
+  </si>
+  <si>
+    <t>in there we go arms are starting to be a little bit get a little bit lactic</t>
+  </si>
+  <si>
+    <t>acid built up in them</t>
+  </si>
+  <si>
+    <t>remember you don't have to listen to that</t>
+  </si>
+  <si>
+    <t>that's just a pain signal but the muscles got plenty left</t>
+  </si>
+  <si>
+    <t>you got this come on driving through curl those &lt;unk&gt;</t>
+  </si>
+  <si>
+    <t>in shoulders are back</t>
+  </si>
+  <si>
+    <t>nice work one</t>
+  </si>
+  <si>
+    <t>right into the next (2 second silence) good form not swinging the weights</t>
+  </si>
+  <si>
+    <t>not getting a bunch of momentum involved almost there go five more seconds</t>
+  </si>
+  <si>
+    <t>that's it and four three two one zero all right all right</t>
+  </si>
+  <si>
+    <t>we're moving on to either a dumbbell squat or a dumbbell goblet squat from the chair</t>
+  </si>
+  <si>
+    <t>i'll clean that name up later</t>
+  </si>
+  <si>
+    <t>okay so we're doing going into our squats weights back in our hips making sure to break at the hips every time</t>
+  </si>
+  <si>
+    <t>because if you don't what happens is you bend at the knees first and you end up here</t>
+  </si>
+  <si>
+    <t>and then you're like oh man</t>
+  </si>
+  <si>
+    <t>my knees hurt hips back then squat</t>
+  </si>
+  <si>
+    <t>that's the key</t>
+  </si>
+  <si>
+    <t>keep those feet flat drive off the heels nice work</t>
+  </si>
+  <si>
+    <t>you got it every squat you do</t>
+  </si>
+  <si>
+    <t>you're going to get that much better at it</t>
+  </si>
+  <si>
+    <t>nobody starts great at these</t>
+  </si>
+  <si>
+    <t>i promise you it's work putting in the work right here and you will see the results</t>
+  </si>
+  <si>
+    <t>i promise you come back repeat it better</t>
+  </si>
+  <si>
+    <t>that's what it's all about</t>
+  </si>
+  <si>
+    <t>thank you so much for your hard work today</t>
+  </si>
+  <si>
+    <t>nice work good we got it</t>
+  </si>
+  <si>
+    <t>let's go five four three two one and done okay</t>
+  </si>
+  <si>
+    <t>we're going back to the upper body &lt;unk&gt;</t>
+  </si>
+  <si>
+    <t>said while one body parts resting the others working so now we're going to the upper body dumbbell &lt;unk&gt;</t>
+  </si>
+  <si>
+    <t>kickbacks elbows are up only bennett those elbows extend and squeeze that back of the arm</t>
+  </si>
+  <si>
+    <t>squeeze those triceps</t>
+  </si>
+  <si>
+    <t>nice work guys come on keep it up one into the next this</t>
+  </si>
+  <si>
+    <t>is it right here</t>
+  </si>
+  <si>
+    <t>we don't have much left</t>
+  </si>
+  <si>
+    <t>we got</t>
+  </si>
+  <si>
+    <t>what about up one more exercise</t>
+  </si>
+  <si>
+    <t>i'll add one more after this one guys</t>
+  </si>
+  <si>
+    <t>that's it fighting through</t>
+  </si>
+  <si>
+    <t>it's all mental</t>
+  </si>
+  <si>
+    <t>remember focus on your goals focus on what brought you here</t>
+  </si>
+  <si>
+    <t>what motivates you and get there</t>
+  </si>
+  <si>
+    <t>breathe let's go and five four three two one and done okay</t>
+  </si>
+  <si>
+    <t>we're going to finish up with some abs</t>
+  </si>
+  <si>
+    <t>it means we're going to the ground</t>
+  </si>
+  <si>
+    <t>i'm gonna keep one body's gonna keep one this time two hands on once you'll go and we're going to go right into those reach crunches reaching up to the ceiling squeeze in those abs up at the top you got it</t>
+  </si>
+  <si>
+    <t>breathe remember this</t>
+  </si>
+  <si>
+    <t>what are you saving it for</t>
+  </si>
+  <si>
+    <t>don't save anything</t>
+  </si>
+  <si>
+    <t>put it all out there right now</t>
+  </si>
+  <si>
+    <t>right here right now</t>
+  </si>
+  <si>
+    <t>let's go nice work</t>
+  </si>
+  <si>
+    <t>nice work not much left more than halfway done with this one already here</t>
+  </si>
+  <si>
+    <t>we go rep by rep getting closer to the end</t>
+  </si>
+  <si>
+    <t>go through that finish line</t>
+  </si>
+  <si>
+    <t>almost there come on now in five four three two one zero nice work we are done</t>
+  </si>
+  <si>
+    <t>ah ah burn so good</t>
+  </si>
+  <si>
+    <t>thank you so much nice work girl</t>
+  </si>
+  <si>
+    <t>good job thank you so much for working out with us today</t>
+  </si>
+  <si>
+    <t>we couldn't do it without you literally</t>
+  </si>
+  <si>
+    <t>if you like this workout as much as we did make sure you give it a big &lt;unk&gt;</t>
+  </si>
+  <si>
+    <t>thumbs up and subscribe to this &lt;unk&gt;</t>
+  </si>
+  <si>
+    <t>channel it really helps us keep this great service free</t>
+  </si>
+  <si>
+    <t>make sure you check out has fit &lt;unk&gt;</t>
+  </si>
+  <si>
+    <t>where we have free workouts free meal plans and our complete fitness programs</t>
+  </si>
+  <si>
+    <t>don't forget to follow us on social media you can like us on &lt;unk&gt;</t>
+  </si>
+  <si>
+    <t>for in the know when our workouts come out say of the day subscribe go</t>
+  </si>
+  <si>
+    <t>show you some motivation</t>
+  </si>
+  <si>
+    <t>yeah i'd love to have you as a friend right</t>
+  </si>
+  <si>
+    <t>thank you so much for giving us the opportunity to serve you today</t>
+  </si>
+  <si>
+    <t>i'm coach &lt;unk&gt;</t>
+  </si>
+  <si>
+    <t>i'm claudia and we will see you at your next</t>
   </si>
 </sst>
 </file>
@@ -588,7 +1119,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D79"/>
+  <dimension ref="A1:D257"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -613,7 +1144,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>99.99998807907104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -632,10 +1163,10 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>57.00954794883728</v>
+        <v>99.99997615814209</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -643,10 +1174,10 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>98.27585816383362</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -668,7 +1199,7 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>100</v>
+        <v>74.29695129394531</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -676,10 +1207,10 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>99.99991655349731</v>
+        <v>71.73812985420227</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -687,10 +1218,10 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>99.99948740005493</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -701,7 +1232,7 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>99.99998807907104</v>
+        <v>77.35967636108398</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -709,10 +1240,10 @@
         <v>12</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>99.99984502792358</v>
+        <v>99.99997615814209</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -745,7 +1276,7 @@
         <v>2</v>
       </c>
       <c r="D14">
-        <v>99.99986886978149</v>
+        <v>68.17975640296936</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -756,7 +1287,7 @@
         <v>2</v>
       </c>
       <c r="D15">
-        <v>99.99998807907104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -767,7 +1298,7 @@
         <v>2</v>
       </c>
       <c r="D16">
-        <v>100</v>
+        <v>99.99892711639404</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -778,7 +1309,7 @@
         <v>2</v>
       </c>
       <c r="D17">
-        <v>100</v>
+        <v>99.99960660934448</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -789,7 +1320,7 @@
         <v>2</v>
       </c>
       <c r="D18">
-        <v>100</v>
+        <v>83.56537222862244</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -811,7 +1342,7 @@
         <v>2</v>
       </c>
       <c r="D20">
-        <v>99.99998807907104</v>
+        <v>99.99978542327881</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -822,7 +1353,7 @@
         <v>2</v>
       </c>
       <c r="D21">
-        <v>100</v>
+        <v>99.99997615814209</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -833,7 +1364,7 @@
         <v>2</v>
       </c>
       <c r="D22">
-        <v>99.90358352661133</v>
+        <v>99.93937015533447</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -844,7 +1375,7 @@
         <v>2</v>
       </c>
       <c r="D23">
-        <v>98.4968900680542</v>
+        <v>98.90754222869873</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -855,7 +1386,7 @@
         <v>2</v>
       </c>
       <c r="D24">
-        <v>99.9998927116394</v>
+        <v>99.99998807907104</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -877,7 +1408,7 @@
         <v>2</v>
       </c>
       <c r="D26">
-        <v>99.99998807907104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -888,7 +1419,7 @@
         <v>2</v>
       </c>
       <c r="D27">
-        <v>99.99982118606567</v>
+        <v>99.99980926513672</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -899,7 +1430,7 @@
         <v>2</v>
       </c>
       <c r="D28">
-        <v>99.99998807907104</v>
+        <v>99.99990463256836</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -910,7 +1441,7 @@
         <v>2</v>
       </c>
       <c r="D29">
-        <v>99.99780654907227</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -921,7 +1452,7 @@
         <v>2</v>
       </c>
       <c r="D30">
-        <v>99.99996423721313</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -954,7 +1485,7 @@
         <v>2</v>
       </c>
       <c r="D33">
-        <v>99.99922513961792</v>
+        <v>98.37700128555298</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -965,7 +1496,7 @@
         <v>2</v>
       </c>
       <c r="D34">
-        <v>100</v>
+        <v>99.99998807907104</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1009,7 +1540,7 @@
         <v>2</v>
       </c>
       <c r="D38">
-        <v>100</v>
+        <v>99.99927282333374</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1020,7 +1551,7 @@
         <v>2</v>
       </c>
       <c r="D39">
-        <v>99.99984502792358</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1028,10 +1559,10 @@
         <v>41</v>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D40">
-        <v>99.99992847442627</v>
+        <v>99.96989965438843</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1042,7 +1573,7 @@
         <v>2</v>
       </c>
       <c r="D41">
-        <v>100</v>
+        <v>99.9983549118042</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1050,10 +1581,10 @@
         <v>43</v>
       </c>
       <c r="C42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D42">
-        <v>63.54318857192993</v>
+        <v>95.96593379974365</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1064,7 +1595,7 @@
         <v>2</v>
       </c>
       <c r="D43">
-        <v>57.46128559112549</v>
+        <v>99.99995231628418</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1075,7 +1606,7 @@
         <v>2</v>
       </c>
       <c r="D44">
-        <v>99.99972581863403</v>
+        <v>99.99990463256836</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1086,7 +1617,7 @@
         <v>2</v>
       </c>
       <c r="D45">
-        <v>100</v>
+        <v>99.99974966049194</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1097,7 +1628,7 @@
         <v>2</v>
       </c>
       <c r="D46">
-        <v>99.99939203262329</v>
+        <v>99.99998807907104</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1119,7 +1650,7 @@
         <v>2</v>
       </c>
       <c r="D48">
-        <v>100</v>
+        <v>99.99839067459106</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1130,7 +1661,7 @@
         <v>2</v>
       </c>
       <c r="D49">
-        <v>99.99995231628418</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1141,7 +1672,7 @@
         <v>2</v>
       </c>
       <c r="D50">
-        <v>99.99998807907104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1152,7 +1683,7 @@
         <v>2</v>
       </c>
       <c r="D51">
-        <v>100</v>
+        <v>99.99996423721313</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1163,7 +1694,7 @@
         <v>2</v>
       </c>
       <c r="D52">
-        <v>99.99994039535522</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1174,7 +1705,7 @@
         <v>2</v>
       </c>
       <c r="D53">
-        <v>99.99994039535522</v>
+        <v>99.99998807907104</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1196,7 +1727,7 @@
         <v>2</v>
       </c>
       <c r="D55">
-        <v>100</v>
+        <v>99.99998807907104</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1207,7 +1738,7 @@
         <v>2</v>
       </c>
       <c r="D56">
-        <v>81.78502321243286</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1218,7 +1749,7 @@
         <v>2</v>
       </c>
       <c r="D57">
-        <v>99.99979734420776</v>
+        <v>99.99998807907104</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1229,7 +1760,7 @@
         <v>2</v>
       </c>
       <c r="D58">
-        <v>99.99992847442627</v>
+        <v>99.9958872795105</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1240,7 +1771,7 @@
         <v>2</v>
       </c>
       <c r="D59">
-        <v>99.99655485153198</v>
+        <v>99.99998807907104</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1251,7 +1782,7 @@
         <v>2</v>
       </c>
       <c r="D60">
-        <v>100</v>
+        <v>99.99415874481201</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1259,10 +1790,10 @@
         <v>62</v>
       </c>
       <c r="C61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D61">
-        <v>99.99412298202515</v>
+        <v>99.99996423721313</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1273,7 +1804,7 @@
         <v>2</v>
       </c>
       <c r="D62">
-        <v>99.99852180480957</v>
+        <v>99.99998807907104</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1284,7 +1815,7 @@
         <v>2</v>
       </c>
       <c r="D63">
-        <v>100</v>
+        <v>99.99822378158569</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1303,10 +1834,10 @@
         <v>66</v>
       </c>
       <c r="C65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D65">
-        <v>99.95394945144653</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1314,10 +1845,10 @@
         <v>67</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D66">
-        <v>99.60540533065796</v>
+        <v>99.17632341384888</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1328,7 +1859,7 @@
         <v>2</v>
       </c>
       <c r="D67">
-        <v>99.99817609786987</v>
+        <v>99.89436268806458</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1336,10 +1867,10 @@
         <v>69</v>
       </c>
       <c r="C68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D68">
-        <v>100</v>
+        <v>98.61603975296021</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1350,7 +1881,7 @@
         <v>2</v>
       </c>
       <c r="D69">
-        <v>99.87700581550598</v>
+        <v>99.99998807907104</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1361,7 +1892,7 @@
         <v>2</v>
       </c>
       <c r="D70">
-        <v>100</v>
+        <v>99.99995231628418</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1372,7 +1903,7 @@
         <v>2</v>
       </c>
       <c r="D71">
-        <v>99.99998807907104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1394,7 +1925,7 @@
         <v>2</v>
       </c>
       <c r="D73">
-        <v>99.99943971633911</v>
+        <v>99.99998807907104</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1405,7 +1936,7 @@
         <v>2</v>
       </c>
       <c r="D74">
-        <v>99.99985694885254</v>
+        <v>100</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1416,7 +1947,7 @@
         <v>2</v>
       </c>
       <c r="D75">
-        <v>100</v>
+        <v>99.8740017414093</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1427,7 +1958,7 @@
         <v>1</v>
       </c>
       <c r="D76">
-        <v>91.51563048362732</v>
+        <v>99.99997615814209</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1438,7 +1969,7 @@
         <v>2</v>
       </c>
       <c r="D77">
-        <v>100</v>
+        <v>99.99996423721313</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1446,10 +1977,10 @@
         <v>79</v>
       </c>
       <c r="C78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D78">
-        <v>99.99386072158813</v>
+        <v>99.99997615814209</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1457,10 +1988,1968 @@
         <v>80</v>
       </c>
       <c r="C79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D79">
         <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>81</v>
+      </c>
+      <c r="C80">
+        <v>2</v>
+      </c>
+      <c r="D80">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>82</v>
+      </c>
+      <c r="C81">
+        <v>2</v>
+      </c>
+      <c r="D81">
+        <v>98.70562553405762</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>83</v>
+      </c>
+      <c r="C82">
+        <v>2</v>
+      </c>
+      <c r="D82">
+        <v>99.94288086891174</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>84</v>
+      </c>
+      <c r="C83">
+        <v>2</v>
+      </c>
+      <c r="D83">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>85</v>
+      </c>
+      <c r="C84">
+        <v>2</v>
+      </c>
+      <c r="D84">
+        <v>99.99969005584717</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>86</v>
+      </c>
+      <c r="C85">
+        <v>2</v>
+      </c>
+      <c r="D85">
+        <v>99.99954700469971</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>87</v>
+      </c>
+      <c r="C86">
+        <v>2</v>
+      </c>
+      <c r="D86">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>88</v>
+      </c>
+      <c r="C87">
+        <v>2</v>
+      </c>
+      <c r="D87">
+        <v>99.73219037055969</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>89</v>
+      </c>
+      <c r="C88">
+        <v>2</v>
+      </c>
+      <c r="D88">
+        <v>99.99996423721313</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>90</v>
+      </c>
+      <c r="C89">
+        <v>2</v>
+      </c>
+      <c r="D89">
+        <v>99.99666213989258</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>91</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>99.99053478240967</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>92</v>
+      </c>
+      <c r="C91">
+        <v>2</v>
+      </c>
+      <c r="D91">
+        <v>99.99998807907104</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>93</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>99.83615279197693</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>94</v>
+      </c>
+      <c r="C93">
+        <v>2</v>
+      </c>
+      <c r="D93">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>95</v>
+      </c>
+      <c r="C94">
+        <v>2</v>
+      </c>
+      <c r="D94">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>96</v>
+      </c>
+      <c r="C95">
+        <v>2</v>
+      </c>
+      <c r="D95">
+        <v>99.99998807907104</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>97</v>
+      </c>
+      <c r="C96">
+        <v>2</v>
+      </c>
+      <c r="D96">
+        <v>99.9707043170929</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>98</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>78.83683443069458</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>99</v>
+      </c>
+      <c r="C98">
+        <v>2</v>
+      </c>
+      <c r="D98">
+        <v>99.99969005584717</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>100</v>
+      </c>
+      <c r="C99">
+        <v>2</v>
+      </c>
+      <c r="D99">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>101</v>
+      </c>
+      <c r="C100">
+        <v>2</v>
+      </c>
+      <c r="D100">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>102</v>
+      </c>
+      <c r="C101">
+        <v>2</v>
+      </c>
+      <c r="D101">
+        <v>99.74662065505981</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>103</v>
+      </c>
+      <c r="C102">
+        <v>2</v>
+      </c>
+      <c r="D102">
+        <v>99.64814186096191</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>104</v>
+      </c>
+      <c r="C103">
+        <v>2</v>
+      </c>
+      <c r="D103">
+        <v>99.99934434890747</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>105</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104">
+        <v>99.99998807907104</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>106</v>
+      </c>
+      <c r="C105">
+        <v>2</v>
+      </c>
+      <c r="D105">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>107</v>
+      </c>
+      <c r="C106">
+        <v>2</v>
+      </c>
+      <c r="D106">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>108</v>
+      </c>
+      <c r="C107">
+        <v>2</v>
+      </c>
+      <c r="D107">
+        <v>99.99979734420776</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>109</v>
+      </c>
+      <c r="C108">
+        <v>2</v>
+      </c>
+      <c r="D108">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>110</v>
+      </c>
+      <c r="C109">
+        <v>2</v>
+      </c>
+      <c r="D109">
+        <v>99.90315437316895</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>111</v>
+      </c>
+      <c r="C110">
+        <v>2</v>
+      </c>
+      <c r="D110">
+        <v>99.99802112579346</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>112</v>
+      </c>
+      <c r="C111">
+        <v>2</v>
+      </c>
+      <c r="D111">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>113</v>
+      </c>
+      <c r="C112">
+        <v>2</v>
+      </c>
+      <c r="D112">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>114</v>
+      </c>
+      <c r="C113">
+        <v>2</v>
+      </c>
+      <c r="D113">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>115</v>
+      </c>
+      <c r="C114">
+        <v>2</v>
+      </c>
+      <c r="D114">
+        <v>99.9990701675415</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>116</v>
+      </c>
+      <c r="C115">
+        <v>2</v>
+      </c>
+      <c r="D115">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>117</v>
+      </c>
+      <c r="C116">
+        <v>2</v>
+      </c>
+      <c r="D116">
+        <v>99.99964237213135</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>118</v>
+      </c>
+      <c r="C117">
+        <v>2</v>
+      </c>
+      <c r="D117">
+        <v>99.99998807907104</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>119</v>
+      </c>
+      <c r="C118">
+        <v>2</v>
+      </c>
+      <c r="D118">
+        <v>99.99990463256836</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>120</v>
+      </c>
+      <c r="C119">
+        <v>2</v>
+      </c>
+      <c r="D119">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>121</v>
+      </c>
+      <c r="C120">
+        <v>2</v>
+      </c>
+      <c r="D120">
+        <v>99.99991655349731</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>122</v>
+      </c>
+      <c r="C121">
+        <v>2</v>
+      </c>
+      <c r="D121">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>123</v>
+      </c>
+      <c r="C122">
+        <v>2</v>
+      </c>
+      <c r="D122">
+        <v>99.99982118606567</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>124</v>
+      </c>
+      <c r="C123">
+        <v>2</v>
+      </c>
+      <c r="D123">
+        <v>99.99998807907104</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>125</v>
+      </c>
+      <c r="C124">
+        <v>2</v>
+      </c>
+      <c r="D124">
+        <v>99.99969005584717</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>126</v>
+      </c>
+      <c r="C125">
+        <v>2</v>
+      </c>
+      <c r="D125">
+        <v>99.99997615814209</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>127</v>
+      </c>
+      <c r="C126">
+        <v>2</v>
+      </c>
+      <c r="D126">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>128</v>
+      </c>
+      <c r="C127">
+        <v>2</v>
+      </c>
+      <c r="D127">
+        <v>99.99991655349731</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>129</v>
+      </c>
+      <c r="C128">
+        <v>2</v>
+      </c>
+      <c r="D128">
+        <v>99.99998807907104</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>130</v>
+      </c>
+      <c r="C129">
+        <v>2</v>
+      </c>
+      <c r="D129">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>131</v>
+      </c>
+      <c r="C130">
+        <v>2</v>
+      </c>
+      <c r="D130">
+        <v>95.62875628471375</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>132</v>
+      </c>
+      <c r="C131">
+        <v>2</v>
+      </c>
+      <c r="D131">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>133</v>
+      </c>
+      <c r="C132">
+        <v>2</v>
+      </c>
+      <c r="D132">
+        <v>99.99953508377075</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>134</v>
+      </c>
+      <c r="C133">
+        <v>2</v>
+      </c>
+      <c r="D133">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>135</v>
+      </c>
+      <c r="C134">
+        <v>2</v>
+      </c>
+      <c r="D134">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>136</v>
+      </c>
+      <c r="C135">
+        <v>2</v>
+      </c>
+      <c r="D135">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>137</v>
+      </c>
+      <c r="C136">
+        <v>2</v>
+      </c>
+      <c r="D136">
+        <v>99.6631920337677</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
+        <v>138</v>
+      </c>
+      <c r="C137">
+        <v>2</v>
+      </c>
+      <c r="D137">
+        <v>99.99932050704956</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
+        <v>139</v>
+      </c>
+      <c r="C138">
+        <v>2</v>
+      </c>
+      <c r="D138">
+        <v>99.99997615814209</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
+        <v>140</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+      <c r="D139">
+        <v>95.8920419216156</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
+        <v>141</v>
+      </c>
+      <c r="C140">
+        <v>2</v>
+      </c>
+      <c r="D140">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" t="s">
+        <v>142</v>
+      </c>
+      <c r="C141">
+        <v>2</v>
+      </c>
+      <c r="D141">
+        <v>99.99978542327881</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" t="s">
+        <v>143</v>
+      </c>
+      <c r="C142">
+        <v>2</v>
+      </c>
+      <c r="D142">
+        <v>90.11827111244202</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" t="s">
+        <v>144</v>
+      </c>
+      <c r="C143">
+        <v>2</v>
+      </c>
+      <c r="D143">
+        <v>99.99970197677612</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" t="s">
+        <v>145</v>
+      </c>
+      <c r="C144">
+        <v>2</v>
+      </c>
+      <c r="D144">
+        <v>99.86878037452698</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" t="s">
+        <v>146</v>
+      </c>
+      <c r="C145">
+        <v>2</v>
+      </c>
+      <c r="D145">
+        <v>99.99719858169556</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
+        <v>147</v>
+      </c>
+      <c r="C146">
+        <v>2</v>
+      </c>
+      <c r="D146">
+        <v>98.48223924636841</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" t="s">
+        <v>148</v>
+      </c>
+      <c r="C147">
+        <v>2</v>
+      </c>
+      <c r="D147">
+        <v>99.99997615814209</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>149</v>
+      </c>
+      <c r="C148">
+        <v>2</v>
+      </c>
+      <c r="D148">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
+        <v>150</v>
+      </c>
+      <c r="C149">
+        <v>2</v>
+      </c>
+      <c r="D149">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
+        <v>151</v>
+      </c>
+      <c r="C150">
+        <v>2</v>
+      </c>
+      <c r="D150">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" t="s">
+        <v>152</v>
+      </c>
+      <c r="C151">
+        <v>2</v>
+      </c>
+      <c r="D151">
+        <v>99.99998807907104</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" t="s">
+        <v>153</v>
+      </c>
+      <c r="C152">
+        <v>2</v>
+      </c>
+      <c r="D152">
+        <v>99.99935626983643</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" t="s">
+        <v>154</v>
+      </c>
+      <c r="C153">
+        <v>2</v>
+      </c>
+      <c r="D153">
+        <v>99.99933242797852</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" t="s">
+        <v>155</v>
+      </c>
+      <c r="C154">
+        <v>2</v>
+      </c>
+      <c r="D154">
+        <v>99.9997615814209</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" t="s">
+        <v>156</v>
+      </c>
+      <c r="C155">
+        <v>2</v>
+      </c>
+      <c r="D155">
+        <v>99.99995231628418</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" t="s">
+        <v>157</v>
+      </c>
+      <c r="C156">
+        <v>2</v>
+      </c>
+      <c r="D156">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" t="s">
+        <v>158</v>
+      </c>
+      <c r="C157">
+        <v>2</v>
+      </c>
+      <c r="D157">
+        <v>99.99998807907104</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" t="s">
+        <v>159</v>
+      </c>
+      <c r="C158">
+        <v>2</v>
+      </c>
+      <c r="D158">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" t="s">
+        <v>160</v>
+      </c>
+      <c r="C159">
+        <v>2</v>
+      </c>
+      <c r="D159">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" t="s">
+        <v>161</v>
+      </c>
+      <c r="C160">
+        <v>1</v>
+      </c>
+      <c r="D160">
+        <v>99.9839186668396</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" t="s">
+        <v>162</v>
+      </c>
+      <c r="C161">
+        <v>2</v>
+      </c>
+      <c r="D161">
+        <v>99.9998927116394</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" t="s">
+        <v>163</v>
+      </c>
+      <c r="C162">
+        <v>2</v>
+      </c>
+      <c r="D162">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" t="s">
+        <v>164</v>
+      </c>
+      <c r="C163">
+        <v>2</v>
+      </c>
+      <c r="D163">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" t="s">
+        <v>165</v>
+      </c>
+      <c r="C164">
+        <v>2</v>
+      </c>
+      <c r="D164">
+        <v>99.99998807907104</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" t="s">
+        <v>166</v>
+      </c>
+      <c r="C165">
+        <v>2</v>
+      </c>
+      <c r="D165">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" t="s">
+        <v>167</v>
+      </c>
+      <c r="C166">
+        <v>2</v>
+      </c>
+      <c r="D166">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" t="s">
+        <v>168</v>
+      </c>
+      <c r="C167">
+        <v>2</v>
+      </c>
+      <c r="D167">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" t="s">
+        <v>169</v>
+      </c>
+      <c r="C168">
+        <v>2</v>
+      </c>
+      <c r="D168">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" t="s">
+        <v>170</v>
+      </c>
+      <c r="C169">
+        <v>2</v>
+      </c>
+      <c r="D169">
+        <v>99.99997615814209</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" t="s">
+        <v>171</v>
+      </c>
+      <c r="C170">
+        <v>2</v>
+      </c>
+      <c r="D170">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" t="s">
+        <v>172</v>
+      </c>
+      <c r="C171">
+        <v>2</v>
+      </c>
+      <c r="D171">
+        <v>99.99911785125732</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" t="s">
+        <v>173</v>
+      </c>
+      <c r="C172">
+        <v>1</v>
+      </c>
+      <c r="D172">
+        <v>60.23491024971008</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" t="s">
+        <v>174</v>
+      </c>
+      <c r="C173">
+        <v>2</v>
+      </c>
+      <c r="D173">
+        <v>99.99996423721313</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" t="s">
+        <v>175</v>
+      </c>
+      <c r="C174">
+        <v>2</v>
+      </c>
+      <c r="D174">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" t="s">
+        <v>176</v>
+      </c>
+      <c r="C175">
+        <v>2</v>
+      </c>
+      <c r="D175">
+        <v>99.99997615814209</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" t="s">
+        <v>177</v>
+      </c>
+      <c r="C176">
+        <v>1</v>
+      </c>
+      <c r="D176">
+        <v>99.98717308044434</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" t="s">
+        <v>178</v>
+      </c>
+      <c r="C177">
+        <v>2</v>
+      </c>
+      <c r="D177">
+        <v>99.61115717887878</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" t="s">
+        <v>179</v>
+      </c>
+      <c r="C178">
+        <v>2</v>
+      </c>
+      <c r="D178">
+        <v>99.99986886978149</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" t="s">
+        <v>180</v>
+      </c>
+      <c r="C179">
+        <v>2</v>
+      </c>
+      <c r="D179">
+        <v>99.99978542327881</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" t="s">
+        <v>181</v>
+      </c>
+      <c r="C180">
+        <v>2</v>
+      </c>
+      <c r="D180">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" t="s">
+        <v>182</v>
+      </c>
+      <c r="C181">
+        <v>1</v>
+      </c>
+      <c r="D181">
+        <v>98.11734557151794</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" t="s">
+        <v>183</v>
+      </c>
+      <c r="C182">
+        <v>2</v>
+      </c>
+      <c r="D182">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" t="s">
+        <v>184</v>
+      </c>
+      <c r="C183">
+        <v>2</v>
+      </c>
+      <c r="D183">
+        <v>99.94761347770691</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" t="s">
+        <v>185</v>
+      </c>
+      <c r="C184">
+        <v>2</v>
+      </c>
+      <c r="D184">
+        <v>99.99998807907104</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" t="s">
+        <v>186</v>
+      </c>
+      <c r="C185">
+        <v>2</v>
+      </c>
+      <c r="D185">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" t="s">
+        <v>187</v>
+      </c>
+      <c r="C186">
+        <v>2</v>
+      </c>
+      <c r="D186">
+        <v>99.96678829193115</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" t="s">
+        <v>188</v>
+      </c>
+      <c r="C187">
+        <v>1</v>
+      </c>
+      <c r="D187">
+        <v>99.99997615814209</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" t="s">
+        <v>189</v>
+      </c>
+      <c r="C188">
+        <v>1</v>
+      </c>
+      <c r="D188">
+        <v>99.68830943107605</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" t="s">
+        <v>190</v>
+      </c>
+      <c r="C189">
+        <v>2</v>
+      </c>
+      <c r="D189">
+        <v>99.99996423721313</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" t="s">
+        <v>191</v>
+      </c>
+      <c r="C190">
+        <v>2</v>
+      </c>
+      <c r="D190">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" t="s">
+        <v>192</v>
+      </c>
+      <c r="C191">
+        <v>2</v>
+      </c>
+      <c r="D191">
+        <v>99.99985694885254</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" t="s">
+        <v>193</v>
+      </c>
+      <c r="C192">
+        <v>2</v>
+      </c>
+      <c r="D192">
+        <v>99.97499585151672</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" t="s">
+        <v>194</v>
+      </c>
+      <c r="C193">
+        <v>2</v>
+      </c>
+      <c r="D193">
+        <v>99.99997615814209</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" t="s">
+        <v>195</v>
+      </c>
+      <c r="C194">
+        <v>2</v>
+      </c>
+      <c r="D194">
+        <v>99.99961853027344</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" t="s">
+        <v>196</v>
+      </c>
+      <c r="C195">
+        <v>2</v>
+      </c>
+      <c r="D195">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" t="s">
+        <v>197</v>
+      </c>
+      <c r="C196">
+        <v>2</v>
+      </c>
+      <c r="D196">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" t="s">
+        <v>198</v>
+      </c>
+      <c r="C197">
+        <v>1</v>
+      </c>
+      <c r="D197">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" t="s">
+        <v>199</v>
+      </c>
+      <c r="C198">
+        <v>2</v>
+      </c>
+      <c r="D198">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" t="s">
+        <v>200</v>
+      </c>
+      <c r="C199">
+        <v>2</v>
+      </c>
+      <c r="D199">
+        <v>99.99998807907104</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" t="s">
+        <v>201</v>
+      </c>
+      <c r="C200">
+        <v>2</v>
+      </c>
+      <c r="D200">
+        <v>99.97935891151428</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" t="s">
+        <v>202</v>
+      </c>
+      <c r="C201">
+        <v>2</v>
+      </c>
+      <c r="D201">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" t="s">
+        <v>203</v>
+      </c>
+      <c r="C202">
+        <v>2</v>
+      </c>
+      <c r="D202">
+        <v>99.99251365661621</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" t="s">
+        <v>204</v>
+      </c>
+      <c r="C203">
+        <v>2</v>
+      </c>
+      <c r="D203">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" t="s">
+        <v>205</v>
+      </c>
+      <c r="C204">
+        <v>2</v>
+      </c>
+      <c r="D204">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" t="s">
+        <v>206</v>
+      </c>
+      <c r="C205">
+        <v>2</v>
+      </c>
+      <c r="D205">
+        <v>99.99985694885254</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" t="s">
+        <v>207</v>
+      </c>
+      <c r="C206">
+        <v>2</v>
+      </c>
+      <c r="D206">
+        <v>99.97120499610901</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" t="s">
+        <v>208</v>
+      </c>
+      <c r="C207">
+        <v>1</v>
+      </c>
+      <c r="D207">
+        <v>99.99997615814209</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" t="s">
+        <v>209</v>
+      </c>
+      <c r="C208">
+        <v>2</v>
+      </c>
+      <c r="D208">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" t="s">
+        <v>210</v>
+      </c>
+      <c r="C209">
+        <v>2</v>
+      </c>
+      <c r="D209">
+        <v>99.99983310699463</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" t="s">
+        <v>211</v>
+      </c>
+      <c r="C210">
+        <v>1</v>
+      </c>
+      <c r="D210">
+        <v>99.99998807907104</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" t="s">
+        <v>212</v>
+      </c>
+      <c r="C211">
+        <v>2</v>
+      </c>
+      <c r="D211">
+        <v>99.950110912323</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" t="s">
+        <v>213</v>
+      </c>
+      <c r="C212">
+        <v>2</v>
+      </c>
+      <c r="D212">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" t="s">
+        <v>214</v>
+      </c>
+      <c r="C213">
+        <v>2</v>
+      </c>
+      <c r="D213">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" t="s">
+        <v>215</v>
+      </c>
+      <c r="C214">
+        <v>2</v>
+      </c>
+      <c r="D214">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" t="s">
+        <v>216</v>
+      </c>
+      <c r="C215">
+        <v>2</v>
+      </c>
+      <c r="D215">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" t="s">
+        <v>217</v>
+      </c>
+      <c r="C216">
+        <v>2</v>
+      </c>
+      <c r="D216">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" t="s">
+        <v>218</v>
+      </c>
+      <c r="C217">
+        <v>2</v>
+      </c>
+      <c r="D217">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" t="s">
+        <v>219</v>
+      </c>
+      <c r="C218">
+        <v>2</v>
+      </c>
+      <c r="D218">
+        <v>99.9944806098938</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" t="s">
+        <v>220</v>
+      </c>
+      <c r="C219">
+        <v>1</v>
+      </c>
+      <c r="D219">
+        <v>99.99933242797852</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" t="s">
+        <v>221</v>
+      </c>
+      <c r="C220">
+        <v>2</v>
+      </c>
+      <c r="D220">
+        <v>99.99982118606567</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" t="s">
+        <v>222</v>
+      </c>
+      <c r="C221">
+        <v>2</v>
+      </c>
+      <c r="D221">
+        <v>99.99988079071045</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" t="s">
+        <v>223</v>
+      </c>
+      <c r="C222">
+        <v>1</v>
+      </c>
+      <c r="D222">
+        <v>84.56353545188904</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" t="s">
+        <v>224</v>
+      </c>
+      <c r="C223">
+        <v>2</v>
+      </c>
+      <c r="D223">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" t="s">
+        <v>225</v>
+      </c>
+      <c r="C224">
+        <v>2</v>
+      </c>
+      <c r="D224">
+        <v>99.97135996818542</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" t="s">
+        <v>226</v>
+      </c>
+      <c r="C225">
+        <v>2</v>
+      </c>
+      <c r="D225">
+        <v>99.99741315841675</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" t="s">
+        <v>227</v>
+      </c>
+      <c r="C226">
+        <v>2</v>
+      </c>
+      <c r="D226">
+        <v>99.99692440032959</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" t="s">
+        <v>228</v>
+      </c>
+      <c r="C227">
+        <v>2</v>
+      </c>
+      <c r="D227">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" t="s">
+        <v>229</v>
+      </c>
+      <c r="C228">
+        <v>2</v>
+      </c>
+      <c r="D228">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" t="s">
+        <v>230</v>
+      </c>
+      <c r="C229">
+        <v>2</v>
+      </c>
+      <c r="D229">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" t="s">
+        <v>231</v>
+      </c>
+      <c r="C230">
+        <v>2</v>
+      </c>
+      <c r="D230">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" t="s">
+        <v>232</v>
+      </c>
+      <c r="C231">
+        <v>2</v>
+      </c>
+      <c r="D231">
+        <v>99.99998807907104</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" t="s">
+        <v>219</v>
+      </c>
+      <c r="C232">
+        <v>2</v>
+      </c>
+      <c r="D232">
+        <v>99.9944806098938</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" t="s">
+        <v>233</v>
+      </c>
+      <c r="C233">
+        <v>2</v>
+      </c>
+      <c r="D233">
+        <v>99.98773336410522</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" t="s">
+        <v>234</v>
+      </c>
+      <c r="C234">
+        <v>2</v>
+      </c>
+      <c r="D234">
+        <v>74.86447691917419</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" t="s">
+        <v>235</v>
+      </c>
+      <c r="C235">
+        <v>2</v>
+      </c>
+      <c r="D235">
+        <v>99.99996423721313</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" t="s">
+        <v>236</v>
+      </c>
+      <c r="C236">
+        <v>2</v>
+      </c>
+      <c r="D236">
+        <v>62.27043867111206</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" t="s">
+        <v>237</v>
+      </c>
+      <c r="C237">
+        <v>2</v>
+      </c>
+      <c r="D237">
+        <v>99.99998807907104</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" t="s">
+        <v>238</v>
+      </c>
+      <c r="C238">
+        <v>2</v>
+      </c>
+      <c r="D238">
+        <v>99.43974018096924</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" t="s">
+        <v>239</v>
+      </c>
+      <c r="C239">
+        <v>1</v>
+      </c>
+      <c r="D239">
+        <v>99.9919056892395</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" t="s">
+        <v>240</v>
+      </c>
+      <c r="C240">
+        <v>2</v>
+      </c>
+      <c r="D240">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" t="s">
+        <v>241</v>
+      </c>
+      <c r="C241">
+        <v>2</v>
+      </c>
+      <c r="D241">
+        <v>99.99998807907104</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" t="s">
+        <v>242</v>
+      </c>
+      <c r="C242">
+        <v>1</v>
+      </c>
+      <c r="D242">
+        <v>99.99994039535522</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" t="s">
+        <v>243</v>
+      </c>
+      <c r="C243">
+        <v>1</v>
+      </c>
+      <c r="D243">
+        <v>99.99995231628418</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" t="s">
+        <v>244</v>
+      </c>
+      <c r="C244">
+        <v>1</v>
+      </c>
+      <c r="D244">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" t="s">
+        <v>245</v>
+      </c>
+      <c r="C245">
+        <v>1</v>
+      </c>
+      <c r="D245">
+        <v>99.99997615814209</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" t="s">
+        <v>246</v>
+      </c>
+      <c r="C246">
+        <v>1</v>
+      </c>
+      <c r="D246">
+        <v>99.99997615814209</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" t="s">
+        <v>247</v>
+      </c>
+      <c r="C247">
+        <v>2</v>
+      </c>
+      <c r="D247">
+        <v>87.09980249404907</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" t="s">
+        <v>248</v>
+      </c>
+      <c r="C248">
+        <v>1</v>
+      </c>
+      <c r="D248">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" t="s">
+        <v>249</v>
+      </c>
+      <c r="C249">
+        <v>1</v>
+      </c>
+      <c r="D249">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" t="s">
+        <v>250</v>
+      </c>
+      <c r="C250">
+        <v>1</v>
+      </c>
+      <c r="D250">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" t="s">
+        <v>251</v>
+      </c>
+      <c r="C251">
+        <v>1</v>
+      </c>
+      <c r="D251">
+        <v>99.99996423721313</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" t="s">
+        <v>252</v>
+      </c>
+      <c r="C252">
+        <v>1</v>
+      </c>
+      <c r="D252">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" t="s">
+        <v>253</v>
+      </c>
+      <c r="C253">
+        <v>1</v>
+      </c>
+      <c r="D253">
+        <v>99.99994039535522</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" t="s">
+        <v>254</v>
+      </c>
+      <c r="C254">
+        <v>1</v>
+      </c>
+      <c r="D254">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" t="s">
+        <v>255</v>
+      </c>
+      <c r="C255">
+        <v>1</v>
+      </c>
+      <c r="D255">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" t="s">
+        <v>256</v>
+      </c>
+      <c r="C256">
+        <v>1</v>
+      </c>
+      <c r="D256">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" t="s">
+        <v>257</v>
+      </c>
+      <c r="C257">
+        <v>1</v>
+      </c>
+      <c r="D257">
+        <v>99.99998807907104</v>
       </c>
     </row>
   </sheetData>

--- a/KeywordExtraction/Results_Detailed Accuracy/detailedAccuracy.xlsx
+++ b/KeywordExtraction/Results_Detailed Accuracy/detailedAccuracy.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="356">
   <si>
     <t>Original Text</t>
   </si>
@@ -25,769 +25,1063 @@
     <t>Confidence Level</t>
   </si>
   <si>
-    <t>hey everybody it's your personal trainer coach</t>
-  </si>
-  <si>
-    <t>&lt;unk&gt; here from has fake</t>
-  </si>
-  <si>
-    <t>and i'm claudia</t>
-  </si>
-  <si>
-    <t>and this is our beginner weight training routine</t>
-  </si>
-  <si>
-    <t>this routine is great for both men and women of a beginner fitness level</t>
-  </si>
-  <si>
-    <t>the only equipment required for this workout is a pair of dumbbells now</t>
-  </si>
-  <si>
-    <t>that weight of the dumbbells is going to be totally determined by your current fitness level</t>
-  </si>
-  <si>
-    <t>just remember it's much better to start light and work your way up than the other way around the only only other equipment that you may want for</t>
-  </si>
-  <si>
-    <t>this workout is a chair or a box for some of the modified movements</t>
-  </si>
-  <si>
-    <t>we're going to do the whole thing with you</t>
-  </si>
-  <si>
-    <t>ready to get this thing going all right we're going to start with either a dumbbell &lt;unk&gt;</t>
-  </si>
-  <si>
-    <t>or a dumbbell &lt;unk&gt;</t>
-  </si>
-  <si>
-    <t>so if you want to do the easier modified versions you go and follow claudia</t>
-  </si>
-  <si>
-    <t>she's going to be using one dumbbell</t>
-  </si>
-  <si>
-    <t>i'm going to use two</t>
-  </si>
-  <si>
-    <t>so that's the main difference</t>
-  </si>
-  <si>
-    <t>i'm going to squeeze these together and i'm going to pull back and claudia is just going to &lt;unk&gt;</t>
-  </si>
-  <si>
-    <t>her fingers and pull back either way</t>
-  </si>
-  <si>
-    <t>we're both pulling back on our elbows</t>
-  </si>
-  <si>
-    <t>keeping those elbows tucked in nice and tight to the body pulling back we're keeping our core tight and straight and our upper body is on a &lt;unk&gt;</t>
-  </si>
-  <si>
-    <t>degree angle</t>
-  </si>
-  <si>
-    <t>now we're not going to count any repetitions today</t>
-  </si>
-  <si>
-    <t>i just want you to try to perform as many moves as you can in allotted time period work at your own pace but at the same time be sure to push yourself because nobody else can do it for you</t>
-  </si>
-  <si>
-    <t>three nice work keep it going pulling back on those elbows keeping them tight to your body in five four three two and one okay</t>
-  </si>
-  <si>
-    <t>we're going to go to the ground for the next one</t>
-  </si>
-  <si>
-    <t>it's going to be a combo movement</t>
-  </si>
-  <si>
-    <t>we're going to need both weights for this one</t>
-  </si>
-  <si>
-    <t>we're going to do a hip up plus chest press</t>
-  </si>
-  <si>
-    <t>we're going to drive off our heels and at the same time we're going to press the dumbbell straight up and back down getting a lot of different body parts worked in this one</t>
-  </si>
-  <si>
-    <t>so we're getting your hamstrings your &lt;unk&gt;</t>
-  </si>
-  <si>
-    <t>your lower back your abs just shoulders triceps</t>
-  </si>
-  <si>
-    <t>the list goes on but it's a very efficient movement getting a lot of work in in a short period of time drive off those heels</t>
-  </si>
-  <si>
-    <t>squeeze the gluts up at the top</t>
-  </si>
-  <si>
-    <t>try your best not to &lt;unk&gt;</t>
-  </si>
-  <si>
-    <t>your back to just come up until your upper body is in this nice straight line and make sure not to bounce your arms off the ground either nice work breathe one right into the next moving at a pace that you feel comfortable with you got it almost there</t>
-  </si>
-  <si>
-    <t>let's go five more seconds on this one and four three two one and done okay</t>
-  </si>
-  <si>
-    <t>we're on to our feet for the next one need both weights again</t>
-  </si>
-  <si>
-    <t>we're going to either do a stiff leg &lt;unk&gt;</t>
-  </si>
-  <si>
-    <t>plus shrug or claudia is going to show you an ar</t>
-  </si>
-  <si>
-    <t>deal with chance for romanian &lt;unk&gt;</t>
-  </si>
-  <si>
-    <t>i didn't make that up shrug either way</t>
-  </si>
-  <si>
-    <t>we're going to put our weight back in our hips</t>
-  </si>
-  <si>
-    <t>little bend the knee</t>
-  </si>
-  <si>
-    <t>i'm going to go all the way down</t>
-  </si>
-  <si>
-    <t>and i'm going to bring my hips forward and shrug claudia's just going to come</t>
-  </si>
-  <si>
-    <t>and bring her hands just below our knees and then repeat that same shrug</t>
-  </si>
-  <si>
-    <t>so we're driving our hips backwards</t>
-  </si>
-  <si>
-    <t>all the way up hips forward</t>
-  </si>
-  <si>
-    <t>and then shrug bringing your shoulders up to your ears</t>
-  </si>
-  <si>
-    <t>feel that stretching your hamstrings</t>
-  </si>
-  <si>
-    <t>if you're not feeling a stretch in the back of your leg then i want to make sure you drive in those hips back just a little bit in those knees and hips</t>
-  </si>
-  <si>
-    <t>go back again</t>
-  </si>
-  <si>
-    <t>another combo movement this one feet in hamstrings &lt;unk&gt;</t>
-  </si>
-  <si>
-    <t>lower back and your traps good and notice how both of us are keeping our backs</t>
-  </si>
-  <si>
-    <t>nice and straight on this movement so we're not breaking that straight line and punching over but keeping our back straight while we're kicking those hips back you got it almost done with this one five four three two and last one zero nice okay</t>
-  </si>
-  <si>
-    <t>so we're going to move on to some shoulder presses next</t>
-  </si>
-  <si>
-    <t>i'm gonna grab my box over here</t>
-  </si>
-  <si>
-    <t>claudia's going to grab our box</t>
-  </si>
-  <si>
-    <t>and i'm going to do this</t>
-  </si>
-  <si>
-    <t>one from a standing position so from the box</t>
-  </si>
-  <si>
-    <t>it's a little easier standing a little harder standing it forces me to use a little bit more stability and a little bit more core but overall very comparable movements</t>
-  </si>
-  <si>
-    <t>you decide which one is right for you if you don't feel comfortable the overhead quite yet grab a seat full range of motion on this one all the way up all the way down</t>
-  </si>
-  <si>
-    <t>stay nice and under control you want to fling or swing the dumbbells around keep your core tight</t>
-  </si>
-  <si>
-    <t>this is a strength training routine so we don't want to</t>
-  </si>
-  <si>
-    <t>i know you said work at your own pace</t>
-  </si>
-  <si>
-    <t>but we definitely don't want to make this a cardio and just start pumping out correct exactly right if you using a weight that you can just do &lt;unk&gt;</t>
-  </si>
-  <si>
-    <t>reps in this &lt;unk&gt;</t>
-  </si>
-  <si>
-    <t>second time period</t>
-  </si>
-  <si>
-    <t>then you up the weight nice okay not much time left on this one</t>
-  </si>
-  <si>
-    <t>(2 second silence) and five four</t>
-  </si>
-  <si>
-    <t>three two and one</t>
-  </si>
-  <si>
-    <t>nice all right shake the arm</t>
-  </si>
-  <si>
-    <t>move this out of the way and we're going to move into a dumbbell curl so we're gonna hit those biceps next working on the gun show &lt;unk&gt;</t>
-  </si>
-  <si>
-    <t>got to go and show her tank top on tonight with those guns anyway</t>
-  </si>
-  <si>
-    <t>firing my wife's guns okay</t>
-  </si>
-  <si>
-    <t>so we're going to do a curl</t>
-  </si>
-  <si>
-    <t>both palms come up</t>
-  </si>
-  <si>
-    <t>we're going to curl those &lt;unk&gt;</t>
-  </si>
-  <si>
-    <t>in on the way up and then all the way back down again</t>
-  </si>
-  <si>
-    <t>this one's under control</t>
-  </si>
-  <si>
-    <t>so that means we're not swinging up and flinging them back down right it defeats the purpose but instead i feel that time under tension feel those muscles contracting all the way up and all the way down you got it good closing give you a nice side view</t>
-  </si>
-  <si>
-    <t>keep those shoulders back and square</t>
-  </si>
-  <si>
-    <t>mm &lt;unk&gt; you got it</t>
-  </si>
-  <si>
-    <t>we're breathing just &lt;unk&gt;</t>
-  </si>
-  <si>
-    <t>more seconds left on this one flight through you got it and three two one and zero are moving to the lower body</t>
-  </si>
-  <si>
-    <t>claudia is going to grab her box or if you have a chair that works as well if you want to the modified version</t>
-  </si>
-  <si>
-    <t>i'm also going to lose a dumbbell here</t>
-  </si>
-  <si>
-    <t>yeah &lt;unk&gt; exactly she's only gonna use one way good point so she's going to do a goblet squats</t>
-  </si>
-  <si>
-    <t>she notice how she's holding the way up two hands and i got a new thumbs out</t>
-  </si>
-  <si>
-    <t>i'm not gonna do a dumbbell squat just with at my side so i'm going to go up</t>
-  </si>
-  <si>
-    <t>be able to get a little bit deeper</t>
-  </si>
-  <si>
-    <t>then doing the chair or box squat</t>
-  </si>
-  <si>
-    <t>but either way we're both bending at the hips first driving those hips back and then coming down until our hips are parallel to the ground</t>
-  </si>
-  <si>
-    <t>all the way up all the way down and i'm just touching the chair and coming right back up</t>
-  </si>
-  <si>
-    <t>i'm not sitting not resting exactly</t>
-  </si>
-  <si>
-    <t>i make sure you're bouncing</t>
-  </si>
-  <si>
-    <t>that's the other thing right</t>
-  </si>
-  <si>
-    <t>correct on swing off of this</t>
-  </si>
-  <si>
-    <t>if you guys still shave you hear the seat either or squatting make sure you keep those knees out</t>
-  </si>
-  <si>
-    <t>don't allow them to break your compress in nice work</t>
-  </si>
-  <si>
-    <t>how much left on this one</t>
-  </si>
-  <si>
-    <t>i know your legs are probably starting to feel it</t>
-  </si>
-  <si>
-    <t>i didn't forget about you</t>
-  </si>
-  <si>
-    <t>we got five four three two and one done okay</t>
-  </si>
-  <si>
-    <t>we're going to move on to a dumbbell &lt;unk&gt;</t>
-  </si>
-  <si>
-    <t>kickback we're gonna hit those triceps</t>
-  </si>
-  <si>
-    <t>next save movement really just to put a mix up your weight find</t>
-  </si>
-  <si>
-    <t>what weight works for you on this one</t>
-  </si>
-  <si>
-    <t>so we're bent over our elbows are up</t>
-  </si>
-  <si>
-    <t>we're only going to bend at those elbows not moving the whole arm</t>
-  </si>
-  <si>
-    <t>keep your core tight and at the top</t>
-  </si>
-  <si>
-    <t>you're squeezing that back of the arm squeezing your triceps up at the top nice work notice</t>
-  </si>
-  <si>
-    <t>we're using that elbow as a lever</t>
-  </si>
-  <si>
-    <t>so we're not moving that upper arm</t>
-  </si>
-  <si>
-    <t>just bend at the elbow so i mean but as you're not going here right now singing no swinging because now all the sudden all the other muscles are taking over we just want to isolate the triceps on this one you got it ten more seconds</t>
-  </si>
-  <si>
-    <t>that's it guys are doing great</t>
-  </si>
-  <si>
-    <t>thank you so much for joining us today and for all of your hard work and three two one and done</t>
-  </si>
-  <si>
-    <t>okay we're going to the ground losing my weights body's going to lose your weights</t>
-  </si>
-  <si>
-    <t>i'm going to keep mine though we're going to do a dumbbell reach crunch so from a crunch position we're going to our feet on the ground</t>
-  </si>
-  <si>
-    <t>we're going to reach up to the ceiling</t>
-  </si>
-  <si>
-    <t>we're going our shoulder blades</t>
-  </si>
-  <si>
-    <t>off the ground and come back down to earth contracting the abs up at the top reaching up big and high you see i'm using my weights making it more difficult claudia</t>
-  </si>
-  <si>
-    <t>she's just using her body weight</t>
-  </si>
-  <si>
-    <t>you could also just use one way if you wanted to straight so again</t>
-  </si>
-  <si>
-    <t>it's all about making this your own coming back repeating it getting a little bit better every single time and that's how we improve that consistency</t>
-  </si>
-  <si>
-    <t>nice work reaching up</t>
-  </si>
-  <si>
-    <t>don't bounce off the ground stay under control you got it nice work nice work</t>
-  </si>
-  <si>
-    <t>we got 10 more seconds on this one beyond those abs start to work</t>
-  </si>
-  <si>
-    <t>that's a good thing</t>
-  </si>
-  <si>
-    <t>that's the feeling of improvement right there and three two one and zero okay</t>
-  </si>
-  <si>
-    <t>we're going to rest</t>
-  </si>
-  <si>
-    <t>that's the end of the first round</t>
-  </si>
-  <si>
-    <t>we got one more to go all right</t>
-  </si>
-  <si>
-    <t>so it's a quick &lt;unk&gt;</t>
-  </si>
-  <si>
-    <t>second break that doesn't give you much time</t>
-  </si>
-  <si>
-    <t>if you want</t>
-  </si>
-  <si>
-    <t>feel free to grab some water shake it loose</t>
-  </si>
-  <si>
-    <t>take a couple deep breaths</t>
-  </si>
-  <si>
-    <t>we're going to get right back into it all right so we got ten seconds</t>
-  </si>
-  <si>
-    <t>i'm going to grab my dumbbells</t>
-  </si>
-  <si>
-    <t>we're getting ready</t>
-  </si>
-  <si>
-    <t>we're starting with the row</t>
-  </si>
-  <si>
-    <t>we're gonna doing my &lt;unk&gt; row &lt;unk&gt;</t>
-  </si>
-  <si>
-    <t>doing her t row and here we go</t>
-  </si>
-  <si>
-    <t>we're pulling back at those elbows keeping our core nice and tight and if you're wondering why we didn't take a longer break even though we're beginners that's because the workout specifically designed to allow some muscles to rest while others are working so right now our backs working but at the same time our chest may be resting allows us to get a lot done in a short period of time again pulling back on those elbows anytime</t>
-  </si>
-  <si>
-    <t>you're doing a row you want to be like you have a string attached to your elbows and you're just pulling back on it</t>
-  </si>
-  <si>
-    <t>just be sure to keep that core tight also exactly</t>
-  </si>
-  <si>
-    <t>you don't want your back getting loose or allowing your abs to relax almost there on this one</t>
-  </si>
-  <si>
-    <t>let's go five four three two and one all right going to the ground you need both weights for this next one doing that</t>
-  </si>
-  <si>
-    <t>hip up plus chest press</t>
-  </si>
-  <si>
-    <t>so we're driving off the heels and squeezing our &lt;unk&gt;</t>
-  </si>
-  <si>
-    <t>and pressing up at the same time nice work and again on any of these</t>
-  </si>
-  <si>
-    <t>don't feel like you have to use the same weight for all of them</t>
-  </si>
-  <si>
-    <t>feel free to adjust the way as you go through it</t>
-  </si>
-  <si>
-    <t>start with your best gas</t>
-  </si>
-  <si>
-    <t>but don't just keep the weight if it's not if you're not able to complete the reps in a safe manner or the other way if it's not challenging you make sure to up the weight so you can get that full benefit nice work driving off the heels pressing straight up keep it up guys almost there and five four three two one zero</t>
-  </si>
-  <si>
-    <t>we're up on our feet and try to keep the pace up a little bit faster for the second round</t>
-  </si>
-  <si>
-    <t>because we know what we're doing we're going to stiff leg &lt;unk&gt;</t>
-  </si>
-  <si>
-    <t>or our &lt;unk&gt;</t>
-  </si>
-  <si>
-    <t>shrug kick back</t>
-  </si>
-  <si>
-    <t>blow your knees hop in the truck taking the weight back on our hips feeling that stretch and up and shrug nice work</t>
-  </si>
-  <si>
-    <t>this one really hits that whole &lt;unk&gt;</t>
-  </si>
-  <si>
-    <t>chain so important i always say in your front are the show muscles in the back of the go muscles basically means all your power and real athleticism comes from your backside</t>
-  </si>
-  <si>
-    <t>come on keep it up you got it nice work not many left</t>
-  </si>
-  <si>
-    <t>let's go five more seconds</t>
-  </si>
-  <si>
-    <t>that's it and four three two one and zero finishing strong</t>
-  </si>
-  <si>
-    <t>okay grab your seat beam</t>
-  </si>
-  <si>
-    <t>got one so</t>
-  </si>
-  <si>
-    <t>if you're doing your shoulder press say get seated feel free to grab it otherwise kicking them up getting right into it bring those dumbbells down to about in line with your ears</t>
-  </si>
-  <si>
-    <t>maybe just a little bit lower really depends on your flexibility and what feels comfortable</t>
-  </si>
-  <si>
-    <t>don't take it to a place</t>
-  </si>
-  <si>
-    <t>it feels awkward with shoulders</t>
-  </si>
-  <si>
-    <t>nice work core stays tight</t>
-  </si>
-  <si>
-    <t>doesn't matter either one whichever one you're doing still stays tight nice work</t>
-  </si>
-  <si>
-    <t>this is about that point in the workout</t>
-  </si>
-  <si>
-    <t>where you start to really feel it it starts to kick in and it becomes all mental right now not even physical</t>
-  </si>
-  <si>
-    <t>it's all up in your head</t>
-  </si>
-  <si>
-    <t>it's all that mental &lt;unk&gt;</t>
-  </si>
-  <si>
-    <t>and grip that's going to keep you moving fighting</t>
-  </si>
-  <si>
-    <t>through rep by rep</t>
-  </si>
-  <si>
-    <t>let's go come on and five four three two one zero</t>
-  </si>
-  <si>
-    <t>ahh all right feeling good moving on to a dumbbell curls</t>
-  </si>
-  <si>
-    <t>we're hitting the biceps next</t>
-  </si>
-  <si>
-    <t>let's get it both curling at the same time curling those &lt;unk&gt;</t>
-  </si>
-  <si>
-    <t>in there we go arms are starting to be a little bit get a little bit lactic</t>
-  </si>
-  <si>
-    <t>acid built up in them</t>
-  </si>
-  <si>
-    <t>remember you don't have to listen to that</t>
-  </si>
-  <si>
-    <t>that's just a pain signal but the muscles got plenty left</t>
-  </si>
-  <si>
-    <t>you got this come on driving through curl those &lt;unk&gt;</t>
-  </si>
-  <si>
-    <t>in shoulders are back</t>
-  </si>
-  <si>
-    <t>nice work one</t>
-  </si>
-  <si>
-    <t>right into the next (2 second silence) good form not swinging the weights</t>
-  </si>
-  <si>
-    <t>not getting a bunch of momentum involved almost there go five more seconds</t>
-  </si>
-  <si>
-    <t>that's it and four three two one zero all right all right</t>
-  </si>
-  <si>
-    <t>we're moving on to either a dumbbell squat or a dumbbell goblet squat from the chair</t>
-  </si>
-  <si>
-    <t>i'll clean that name up later</t>
-  </si>
-  <si>
-    <t>okay so we're doing going into our squats weights back in our hips making sure to break at the hips every time</t>
-  </si>
-  <si>
-    <t>because if you don't what happens is you bend at the knees first and you end up here</t>
-  </si>
-  <si>
-    <t>and then you're like oh man</t>
-  </si>
-  <si>
-    <t>my knees hurt hips back then squat</t>
-  </si>
-  <si>
-    <t>that's the key</t>
-  </si>
-  <si>
-    <t>keep those feet flat drive off the heels nice work</t>
-  </si>
-  <si>
-    <t>you got it every squat you do</t>
-  </si>
-  <si>
-    <t>you're going to get that much better at it</t>
-  </si>
-  <si>
-    <t>nobody starts great at these</t>
-  </si>
-  <si>
-    <t>i promise you it's work putting in the work right here and you will see the results</t>
-  </si>
-  <si>
-    <t>i promise you come back repeat it better</t>
-  </si>
-  <si>
-    <t>that's what it's all about</t>
-  </si>
-  <si>
-    <t>thank you so much for your hard work today</t>
-  </si>
-  <si>
-    <t>nice work good we got it</t>
-  </si>
-  <si>
-    <t>let's go five four three two one and done okay</t>
-  </si>
-  <si>
-    <t>we're going back to the upper body &lt;unk&gt;</t>
-  </si>
-  <si>
-    <t>said while one body parts resting the others working so now we're going to the upper body dumbbell &lt;unk&gt;</t>
-  </si>
-  <si>
-    <t>kickbacks elbows are up only bennett those elbows extend and squeeze that back of the arm</t>
-  </si>
-  <si>
-    <t>squeeze those triceps</t>
-  </si>
-  <si>
-    <t>nice work guys come on keep it up one into the next this</t>
-  </si>
-  <si>
-    <t>is it right here</t>
-  </si>
-  <si>
-    <t>we don't have much left</t>
-  </si>
-  <si>
-    <t>we got</t>
-  </si>
-  <si>
-    <t>what about up one more exercise</t>
-  </si>
-  <si>
-    <t>i'll add one more after this one guys</t>
-  </si>
-  <si>
-    <t>that's it fighting through</t>
-  </si>
-  <si>
-    <t>it's all mental</t>
-  </si>
-  <si>
-    <t>remember focus on your goals focus on what brought you here</t>
-  </si>
-  <si>
-    <t>what motivates you and get there</t>
-  </si>
-  <si>
-    <t>breathe let's go and five four three two one and done okay</t>
-  </si>
-  <si>
-    <t>we're going to finish up with some abs</t>
-  </si>
-  <si>
-    <t>it means we're going to the ground</t>
-  </si>
-  <si>
-    <t>i'm gonna keep one body's gonna keep one this time two hands on once you'll go and we're going to go right into those reach crunches reaching up to the ceiling squeeze in those abs up at the top you got it</t>
-  </si>
-  <si>
-    <t>breathe remember this</t>
-  </si>
-  <si>
-    <t>what are you saving it for</t>
-  </si>
-  <si>
-    <t>don't save anything</t>
-  </si>
-  <si>
-    <t>put it all out there right now</t>
-  </si>
-  <si>
-    <t>right here right now</t>
-  </si>
-  <si>
-    <t>let's go nice work</t>
-  </si>
-  <si>
-    <t>nice work not much left more than halfway done with this one already here</t>
-  </si>
-  <si>
-    <t>we go rep by rep getting closer to the end</t>
-  </si>
-  <si>
-    <t>go through that finish line</t>
-  </si>
-  <si>
-    <t>almost there come on now in five four three two one zero nice work we are done</t>
-  </si>
-  <si>
-    <t>ah ah burn so good</t>
-  </si>
-  <si>
-    <t>thank you so much nice work girl</t>
-  </si>
-  <si>
-    <t>good job thank you so much for working out with us today</t>
-  </si>
-  <si>
-    <t>we couldn't do it without you literally</t>
-  </si>
-  <si>
-    <t>if you like this workout as much as we did make sure you give it a big &lt;unk&gt;</t>
-  </si>
-  <si>
-    <t>thumbs up and subscribe to this &lt;unk&gt;</t>
-  </si>
-  <si>
-    <t>channel it really helps us keep this great service free</t>
-  </si>
-  <si>
-    <t>make sure you check out has fit &lt;unk&gt;</t>
-  </si>
-  <si>
-    <t>where we have free workouts free meal plans and our complete fitness programs</t>
-  </si>
-  <si>
-    <t>don't forget to follow us on social media you can like us on &lt;unk&gt;</t>
-  </si>
-  <si>
-    <t>for in the know when our workouts come out say of the day subscribe go</t>
-  </si>
-  <si>
-    <t>show you some motivation</t>
-  </si>
-  <si>
-    <t>yeah i'd love to have you as a friend right</t>
-  </si>
-  <si>
-    <t>thank you so much for giving us the opportunity to serve you today</t>
-  </si>
-  <si>
-    <t>i'm coach &lt;unk&gt;</t>
-  </si>
-  <si>
-    <t>i'm claudia and we will see you at your next</t>
+    <t>so today is your strength one workout</t>
+  </si>
+  <si>
+    <t>you're gonna be doing chest legs and back this workout</t>
+  </si>
+  <si>
+    <t>you're gonna start with a dynamic warmup</t>
+  </si>
+  <si>
+    <t>you're gonna move into your stretch series</t>
+  </si>
+  <si>
+    <t>and then you're gonna do two different circuits</t>
+  </si>
+  <si>
+    <t>each exercise in the circuit is going to be comprised of 30 seconds and the equipment that you're gonna need today is a pull up bar a set of dumbbells or resistance bands and for today's workout</t>
+  </si>
+  <si>
+    <t>we have clutch bodyshop</t>
+  </si>
+  <si>
+    <t>athlete professional firefighter and former nfl football player</t>
+  </si>
+  <si>
+    <t>michael gas person joining us and remember for today's workout and every single workout in the caleche live 24 7 fitness trainer</t>
+  </si>
+  <si>
+    <t>you can follow along at home in real time using your tablet smartphone tv or computer</t>
+  </si>
+  <si>
+    <t>let's get started with the strength 1 workout and begin our dynamic warm (4 second silence) ups starting with jogging in place</t>
+  </si>
+  <si>
+    <t>michael is going to get us started</t>
+  </si>
+  <si>
+    <t>each one of these exercises in this dynamic</t>
+  </si>
+  <si>
+    <t>warm up is going to be completed</t>
+  </si>
+  <si>
+    <t>a total of 30 seconds</t>
+  </si>
+  <si>
+    <t>and again every warmup that you do as part of this trainer should be on a scale of 7 to 10 10 being the highest intensity that you can have so you want to</t>
+  </si>
+  <si>
+    <t>you really want to be pushing it during the warm up</t>
+  </si>
+  <si>
+    <t>we want to get the muscles ready to do work so just about 10 seconds left how you feeling say michael</t>
+  </si>
+  <si>
+    <t>ready killer (2 second silence) which you've made it 4 3 2 1 good moving on to the next exercise jumping</t>
+  </si>
+  <si>
+    <t>jacks there we go so michaels taking a nice wide stance</t>
+  </si>
+  <si>
+    <t>don't half ass jumping jacks</t>
+  </si>
+  <si>
+    <t>i hate seeing people at a gym kind of going like this</t>
+  </si>
+  <si>
+    <t>come all the way up</t>
+  </si>
+  <si>
+    <t>bring your feet nice and wide just about halfway there</t>
+  </si>
+  <si>
+    <t>(3 second silence)</t>
+  </si>
+  <si>
+    <t>it's important that you're really focusing during your workout</t>
+  </si>
+  <si>
+    <t>getting your mind in the zone for the workout that is about to take place good</t>
+  </si>
+  <si>
+    <t>(2 second silence) four</t>
+  </si>
+  <si>
+    <t>three two one</t>
+  </si>
+  <si>
+    <t>good we're gonna get right into butt</t>
+  </si>
+  <si>
+    <t>kicks warm the hamstrings up</t>
+  </si>
+  <si>
+    <t>go michael if you can just turn to the side</t>
+  </si>
+  <si>
+    <t>show the people at home the angle so his knee is staying right underneath his hips and that leg is just coming right back to his butt and kicking it hence the name butt kicks good keeping the upper body nice and relaxed while you're warming up you don't want to be holding your breath</t>
+  </si>
+  <si>
+    <t>you want to be breathing</t>
+  </si>
+  <si>
+    <t>you want to be loosening up so just about 10 seconds left good five four three two one switch you right into a switch kick with arm circles so he's kicking those legs out getting those shoulders nice and warmed up keep in mind that his arms are just parallel with his shoulders</t>
+  </si>
+  <si>
+    <t>we're trying to get the shoulder socket</t>
+  </si>
+  <si>
+    <t>nice and warm get blood moving into all the muscles they are about to work today</t>
+  </si>
+  <si>
+    <t>(10 second silence) but five seconds left four</t>
+  </si>
+  <si>
+    <t>three two one moving right into walking high knees</t>
+  </si>
+  <si>
+    <t>let's get our hip flexors nice and warmed up</t>
+  </si>
+  <si>
+    <t>michael did a lot of these back in his football days</t>
+  </si>
+  <si>
+    <t>(2 second silence)</t>
+  </si>
+  <si>
+    <t>go so again with all of these warm up exercises</t>
+  </si>
+  <si>
+    <t>you want to make sure that you're keeping your core nice and tight you don't want to just kind of be throwing your body around</t>
+  </si>
+  <si>
+    <t>we're trying to tell the body</t>
+  </si>
+  <si>
+    <t>hey guess what</t>
+  </si>
+  <si>
+    <t>we're getting ready to work</t>
+  </si>
+  <si>
+    <t>(5 second silence)</t>
+  </si>
+  <si>
+    <t>i mean everything</t>
+  </si>
+  <si>
+    <t>nice and engage good at five four three two and one perfect alright</t>
+  </si>
+  <si>
+    <t>so that concludes our dynamic warmup</t>
+  </si>
+  <si>
+    <t>we're going to move right into our stretch series (8 second silence) perfect the array intuit</t>
+  </si>
+  <si>
+    <t>our first exercise is a seated hamstring stretch so he is going to sit on his butt his feet are coming straight out in front of him</t>
+  </si>
+  <si>
+    <t>it's good and he's just reaching out and see</t>
+  </si>
+  <si>
+    <t>he dropped his head immediately when he did these with his nose</t>
+  </si>
+  <si>
+    <t>highly conditioned athlete (2 second silence)</t>
+  </si>
+  <si>
+    <t>you should feel this at home coming all the way down your back and right into your hamstrings</t>
+  </si>
+  <si>
+    <t>if you can't get all the way out to your feet again that's okay you can always hold on to the back of your calf because by the end of this program you should be able to get out to your toes (3 second silence) music (3 second silence)</t>
+  </si>
+  <si>
+    <t>okay good so he's gonna come up he's gonna shake it out and he's gonna go right back into that stretch and again the reason that we do each one of these stretches twice is because your body's natural response to being stretched is designed to protect itself so if i was to step out of my car and twist my ankle that stretch my body's natural inclination is gonna be to fight against that so when we go into the first stretch you're gonna find that you feel a little bit tighter on that first stretch by that second stretch your body goes</t>
+  </si>
+  <si>
+    <t>oh hey i'm not injured</t>
+  </si>
+  <si>
+    <t>i'm just stretching and so you're able to get deeper into that stretch which is exactly what we want</t>
+  </si>
+  <si>
+    <t>it's good all right</t>
+  </si>
+  <si>
+    <t>okay we're gonna move right into our next stretch which is a quad stretch</t>
+  </si>
+  <si>
+    <t>so michael is gonna stand up again</t>
+  </si>
+  <si>
+    <t>you can also do this</t>
+  </si>
+  <si>
+    <t>stretch on the ground</t>
+  </si>
+  <si>
+    <t>if you're so inclined he's just gonna bring that foot right behind him if you can't balance on one leg that's okay</t>
+  </si>
+  <si>
+    <t>you can use something nearby to hold on to sometimes as your body's getting warmed up your balance may feel a little bit off and that's completely fine so again michaels</t>
+  </si>
+  <si>
+    <t>keeping that knee right below his hip and its foot is straight back</t>
+  </si>
+  <si>
+    <t>(2 second silence) again through these stretches</t>
+  </si>
+  <si>
+    <t>you want to make sure that you're breathing</t>
+  </si>
+  <si>
+    <t>don't hold your breath</t>
+  </si>
+  <si>
+    <t>don't hold tension in your face</t>
+  </si>
+  <si>
+    <t>sometimes i see people stretching and they literally look like you should be relaxed during this time period good and relaxed</t>
+  </si>
+  <si>
+    <t>i'm gonna shake that out</t>
+  </si>
+  <si>
+    <t>he's gonna go right back into it one more time</t>
+  </si>
+  <si>
+    <t>the more you breathe through these stretches the more you're gonna oxygenate the muscles that are about to work and that's exactly what we want also when you pump oxygen into the muscles</t>
+  </si>
+  <si>
+    <t>it's going to help the muscles to relax so you're going to get more out of these stretches (2 second silence) just about halfway there on the second stretch (7 second silence) four</t>
+  </si>
+  <si>
+    <t>three two and one perfect</t>
+  </si>
+  <si>
+    <t>let's move it over to the other side and again when you're going through this stretch series you really want to be mentally getting yourself</t>
+  </si>
+  <si>
+    <t>your head should be in the game</t>
+  </si>
+  <si>
+    <t>you shouldn't be looking around if you're in a gym you shouldn't be looking around seeing what other people are doing if you're at home you shouldn't be text messaging</t>
+  </si>
+  <si>
+    <t>this is a time to really set your intention and to get your head in the game for what's about to happen</t>
+  </si>
+  <si>
+    <t>which is you're gonna give a hundred percent to this workout just like you are with every single workout in this trainer</t>
+  </si>
+  <si>
+    <t>that's how you're gonna get the results</t>
+  </si>
+  <si>
+    <t>good five more seconds left on this side feeling warm</t>
+  </si>
+  <si>
+    <t>oh yeah good and relaxed</t>
+  </si>
+  <si>
+    <t>she's gonna shake that out</t>
+  </si>
+  <si>
+    <t>come right back up</t>
+  </si>
+  <si>
+    <t>perfect (15 second silence)</t>
+  </si>
+  <si>
+    <t>just about halfway there on this second round of quad stretch</t>
+  </si>
+  <si>
+    <t>this is gonna be really really important this stretch for today's workout because we're doing a lot of legs five four three two one good moving right into a sumo squat stretch</t>
+  </si>
+  <si>
+    <t>he's gonna take a nice wide base and just drop your hands right down to the ground</t>
+  </si>
+  <si>
+    <t>yep just let your butt drop all the way down</t>
+  </si>
+  <si>
+    <t>michael can get a little wider on the strips and i was able to during our bodyweight workout 10 seconds left</t>
+  </si>
+  <si>
+    <t>this is again</t>
+  </si>
+  <si>
+    <t>excellent for warming up and opening up the hips (3 second silence) our hips get really tight because we spend so much time sitting down (2 second silence) good and relax</t>
+  </si>
+  <si>
+    <t>just come up shake it out</t>
+  </si>
+  <si>
+    <t>we're gonna move right into the next round (4 second silence) music again</t>
+  </si>
+  <si>
+    <t>he's keeping his back nice and straight</t>
+  </si>
+  <si>
+    <t>he's not bent over everything</t>
+  </si>
+  <si>
+    <t>he's in the perfect position for this</t>
+  </si>
+  <si>
+    <t>stretch (5 second silence) about halfway there</t>
+  </si>
+  <si>
+    <t>after we finish with this stretch we're gonna move right into our upper body stretches (2 second silence) ten seconds left and five four</t>
+  </si>
+  <si>
+    <t>all right on our feet right into our dynamic chest stretch</t>
+  </si>
+  <si>
+    <t>he's just gonna shake out again</t>
+  </si>
+  <si>
+    <t>he's not forcing it and ripping through his body</t>
+  </si>
+  <si>
+    <t>we're just getting the body nice and warmed up perfect</t>
+  </si>
+  <si>
+    <t>that's like perfect</t>
+  </si>
+  <si>
+    <t>(2 second silence) laughter (3 second silence) ten seconds left on this first round (5 second silence) music</t>
+  </si>
+  <si>
+    <t>it's part of this stretch</t>
+  </si>
+  <si>
+    <t>you may also fill this in your shoulders</t>
+  </si>
+  <si>
+    <t>and that's great as well good and relax shake it out moving right into the next round again</t>
+  </si>
+  <si>
+    <t>you know so so often at the gym i see guys working out</t>
+  </si>
+  <si>
+    <t>and they'll just like pump chests all day and then they never stretch and that's what really creates that kind of shoulder rotation forward and overtime</t>
+  </si>
+  <si>
+    <t>that's also what leads to injury so with any clutch workout</t>
+  </si>
+  <si>
+    <t>we always have people warm up and stretch all areas of the body</t>
+  </si>
+  <si>
+    <t>because that's what really is in</t>
+  </si>
+  <si>
+    <t>it's injury prevention but believe it or not you'll also get better results because the muscles are able to have better mobility and range of motion throughout the movement</t>
+  </si>
+  <si>
+    <t>take good relax</t>
+  </si>
+  <si>
+    <t>and we're gonna move right into our across the chest shoulder stretch so heat</t>
+  </si>
+  <si>
+    <t>michael just gonna pull this arm straight across if you feel any sort of pinching in your chest when you do this exercise that is an indication that you need to spend more time stretching your chest because as you're bringing that arm across your chest is actually contracting and if you feel that chest want to tighten up just spend a couple of extra minutes stretching your chest against the wall or however you you know against the machine however you need to do it to make sure you're keeping those muscles nice and lengthened at five seconds left on this right side</t>
+  </si>
+  <si>
+    <t>good and relax take it out</t>
+  </si>
+  <si>
+    <t>oh sorry about that</t>
+  </si>
+  <si>
+    <t>i mean to be hitting you moving right into the next round good so again</t>
+  </si>
+  <si>
+    <t>we want to make sure you always want to make sure you're stretching your upper body appropriately</t>
+  </si>
+  <si>
+    <t>sometimes people spend time stretching their lower body never thing you know stretch their upper body and it's so so so important by keeping those muscles nice and lengthened out you're actually gonna get better range of motion better mobility and over time that's gonna lead to greater strength gains but (2 second silence) four</t>
+  </si>
+  <si>
+    <t>three two one moving over to the other side (2 second silence) especially for somebody like michael who now has to spend his time fighting fires and carrying around tons of gear and carrying people out of buildings</t>
+  </si>
+  <si>
+    <t>it's so important to have that flexibility through your upper body</t>
+  </si>
+  <si>
+    <t>last thing you want to do is catch cramp in a moment</t>
+  </si>
+  <si>
+    <t>it's most like that right</t>
+  </si>
+  <si>
+    <t>so it's probably super important for you</t>
+  </si>
+  <si>
+    <t>(3 second silence) eight seconds left six five four three two one good time so we're gonna shake it out move right into the second round (3 second silence) if you're short on time and you're going through these stretches it is okay to complete each one of these stretches one time but i always recommend too but if you are short on time the most important thing is at least you're stretching at least you're getting the body warmed up and primed for the workout appropriately (2 second silence) at ten seconds left</t>
+  </si>
+  <si>
+    <t>we're gonna move right into our tricep</t>
+  </si>
+  <si>
+    <t>stretch (2 second silence) four</t>
+  </si>
+  <si>
+    <t>three two one good and moving right into our overhead tricep stretch so again michaels pulling that that arm right next to his head his head is not doing this</t>
+  </si>
+  <si>
+    <t>his head is in a neutral position and he's just pressing down on that top elbow top of his elbow</t>
+  </si>
+  <si>
+    <t>rather it's just perfect so i can see</t>
+  </si>
+  <si>
+    <t>this is also coming down into his lat</t>
+  </si>
+  <si>
+    <t>and that's exactly what it should be doing for you at home</t>
+  </si>
+  <si>
+    <t>you feeling it</t>
+  </si>
+  <si>
+    <t>i see a little sweat coming down already</t>
+  </si>
+  <si>
+    <t>it's about to go down here today</t>
+  </si>
+  <si>
+    <t>good three two one</t>
+  </si>
+  <si>
+    <t>good relax shake it out moving into the next round perfect and you guys during this time period you really want to just be thinking about your intention for what today's workout is gonna be</t>
+  </si>
+  <si>
+    <t>i think so many times people get to the gym and they get there and then they've got no intensity</t>
+  </si>
+  <si>
+    <t>well that's because you didn't spend time on the way to the gym committing to being intense once you get into the gym and being focused so take this time and use it to really get your head in the place</t>
+  </si>
+  <si>
+    <t>it needs to be to give 100 for today's workout</t>
+  </si>
+  <si>
+    <t>put four three two one</t>
+  </si>
+  <si>
+    <t>good relax shake it out</t>
+  </si>
+  <si>
+    <t>let's move on to the other side (17 second silence) so (4 second silence)</t>
+  </si>
+  <si>
+    <t>we have just about ten seconds</t>
+  </si>
+  <si>
+    <t>left (2 second silence) five four three two and one (3 second silence)</t>
+  </si>
+  <si>
+    <t>you know so often</t>
+  </si>
+  <si>
+    <t>i see people at the gym and they go you know</t>
+  </si>
+  <si>
+    <t>how do you stay motivated</t>
+  </si>
+  <si>
+    <t>how do you get yourself in that zone</t>
+  </si>
+  <si>
+    <t>well the truth is is that you have to get yourself in that zone on the way to the gym</t>
+  </si>
+  <si>
+    <t>you can't just show up to work out and be like oh now i feel intensity you need to get yourself in that headspace before you get to your workout</t>
+  </si>
+  <si>
+    <t>so this is your time to do that</t>
+  </si>
+  <si>
+    <t>while you're stretching get yourself in that space to give a hundred percent (2 second silence) five seconds left three two</t>
+  </si>
+  <si>
+    <t>relax okay good</t>
+  </si>
+  <si>
+    <t>let's move right into our iliopsoas stretch</t>
+  </si>
+  <si>
+    <t>so michaels gonna put his foot out and now he's leaning right into it up and over his body perfect so again</t>
+  </si>
+  <si>
+    <t>if you don't feel this you just need to lean back a little bit more</t>
+  </si>
+  <si>
+    <t>they should feel this right through your abdominal area right through here</t>
+  </si>
+  <si>
+    <t>because that's where your hip flexor the iliopsoas kind of lives on each side</t>
+  </si>
+  <si>
+    <t>except that goes right through the center of your body so this hip flexor is essential for pretty much all movement so we want to make sure we spend some time stretching it out about five seconds left four three two one go check it out</t>
+  </si>
+  <si>
+    <t>we right into the round to (2 second silence) the cutting again on each one of these exercises during the stretch series</t>
+  </si>
+  <si>
+    <t>when you get to that second round you really want to try and go a little bit further than you did the tiny before so go cautiously into the first one find where you're comfortable but on the second one you want to push into it a little bit</t>
+  </si>
+  <si>
+    <t>more (4 second silence) music (2 second silence) eight seven six five four</t>
+  </si>
+  <si>
+    <t>three two one good moving right over to the other side so preparing to stretch for this workout</t>
+  </si>
+  <si>
+    <t>he is really important</t>
+  </si>
+  <si>
+    <t>because we're working the whole body so from this workout you can really expect for going from upper body to lower body back to upper body</t>
+  </si>
+  <si>
+    <t>the whole point of this methodology is to really confuse your body</t>
+  </si>
+  <si>
+    <t>it doesn't know where to pump the blood so you can expect to be winded</t>
+  </si>
+  <si>
+    <t>you can expect to be fatigued but again those are all good problems to have because over time your body is going to acclimate to it</t>
+  </si>
+  <si>
+    <t>she's going to get stronger</t>
+  </si>
+  <si>
+    <t>you're gonna burn fat and you're gonna be in the best shape of your life by the end of these four weeks or hopefully you continue on for 365 (4 second silence) music and again these workouts</t>
+  </si>
+  <si>
+    <t>their short right so often</t>
+  </si>
+  <si>
+    <t>we're told we have to be in the gym for two hours a day doing body building workouts in order to build muscle</t>
+  </si>
+  <si>
+    <t>that's not true</t>
+  </si>
+  <si>
+    <t>if you follow the the building program with the nutrition plan pair it with these workouts you will build muscle as well and not have to be in the gym for two hours because a lot of people myself included</t>
+  </si>
+  <si>
+    <t>i'm sure on time i don't have two hours so this is actually a perfect program</t>
+  </si>
+  <si>
+    <t>it's something that i follow up something that all i have a lot of my clients follow as well</t>
+  </si>
+  <si>
+    <t>go ahead and relax all right great</t>
+  </si>
+  <si>
+    <t>let's get right into our low back stretch so michaels gonna lay on his back</t>
+  </si>
+  <si>
+    <t>he's just gonna cross one leg over the other yep and just twist down perfect yep and again</t>
+  </si>
+  <si>
+    <t>he's keeping his upper body nice and relaxed again</t>
+  </si>
+  <si>
+    <t>you don't want to have your arm kind of sneaking up see that a lot</t>
+  </si>
+  <si>
+    <t>you really just want to stay in a completely neutral position and it while you're in this position you really want to be focusing on breathing air right into that low back</t>
+  </si>
+  <si>
+    <t>believe it or not that will help open everything up a lot</t>
+  </si>
+  <si>
+    <t>faster (7 second silence) music</t>
+  </si>
+  <si>
+    <t>good relax shake it out and move right into the round</t>
+  </si>
+  <si>
+    <t>(2 second silence) with any of these workouts</t>
+  </si>
+  <si>
+    <t>it's so important for us to stretch our back out because all of these movements go right through the center of our body</t>
+  </si>
+  <si>
+    <t>whether it's a bodyweight squat or we're doing pull ups</t>
+  </si>
+  <si>
+    <t>we really want to keep the body nice and flexible good just about 15 seconds left in the second stretch</t>
+  </si>
+  <si>
+    <t>we're getting so close</t>
+  </si>
+  <si>
+    <t>you're getting into this workout good</t>
+  </si>
+  <si>
+    <t>5 4 3 2 1 okay</t>
+  </si>
+  <si>
+    <t>let's twist over to the other side (3 second silence) music good and i can see that this side for him is a little bit tighter</t>
+  </si>
+  <si>
+    <t>which is fine a lot of times when you get into these stretches you will see that one side of the body is feeling a little bit tighter than the other and that's fine</t>
+  </si>
+  <si>
+    <t>that's why we're going through the stretch so if you feel that one side had needs a little bit more attention don't be afraid to go through the stretch even three times (5 second silence) good 5 seconds left 4 3 2 1</t>
+  </si>
+  <si>
+    <t>good relax now</t>
+  </si>
+  <si>
+    <t>our body will do really funny things because we spend so much time sitting down now</t>
+  </si>
+  <si>
+    <t>everyone has a side that they favor</t>
+  </si>
+  <si>
+    <t>so if i'm sitting my side is my right side if i'm sitting in my car i'm always leaning on the right side of my body so sometimes when i get to the gym i'll find that the right side of my back is a lot tighter than the left</t>
+  </si>
+  <si>
+    <t>and that's why going through</t>
+  </si>
+  <si>
+    <t>these flexibility exercises is so important</t>
+  </si>
+  <si>
+    <t>because we don't want to have those imbalances because that actually changes the way that our body fires while we're doing these exercises music good and relaxed perfect moving right into our glute stretch</t>
+  </si>
+  <si>
+    <t>michael's gonna sit up and just keep one leg straight across the other went over his body and pull that knee right into the chest</t>
+  </si>
+  <si>
+    <t>listen we got to warm up the glutes</t>
+  </si>
+  <si>
+    <t>we're doing a lot of lower body stuff</t>
+  </si>
+  <si>
+    <t>last thing we want is a piriformis or a glute to get super super tight because you know what happens when they when you don't have the flexibility through that area of the body because your low back comes in and tries to take over and that is what will create a lot of problems for you so with when it comes to the glutes and when it comes to this flexibility portion of these workouts</t>
+  </si>
+  <si>
+    <t>you really want to make sure that you are staying focused</t>
+  </si>
+  <si>
+    <t>when you're going through these exercises good relax</t>
+  </si>
+  <si>
+    <t>we'll go one more time on that side</t>
+  </si>
+  <si>
+    <t>you know sometimes i see people at the gym and they're doing stretching but they're not really doing anything</t>
+  </si>
+  <si>
+    <t>you should be slightly uncomfortable while you're going through these stretches</t>
+  </si>
+  <si>
+    <t>you should feel tension in the muscle</t>
+  </si>
+  <si>
+    <t>that's a good thing because it's that tension that's gonna then gonna get that muscle to relax and lengthen out good ten seconds left (4 second silence) music</t>
+  </si>
+  <si>
+    <t>good five four three two and one good</t>
+  </si>
+  <si>
+    <t>let's switch over to the other side</t>
+  </si>
+  <si>
+    <t>(2 second silence) for people who have body fat that they can't seem to get rid of you know a lot of that in my opinion is due to cortisol because we're so stressed all the time our court record assault dumping and our body literally is dumping the hormone that is responsible for body fat so stretching is a great way to relax and the more</t>
+  </si>
+  <si>
+    <t>we can do things that help us to relax</t>
+  </si>
+  <si>
+    <t>and let allow our mind to be in a peaceful place</t>
+  </si>
+  <si>
+    <t>the more our body is gonna have the balance hormonal e to burn fat quick</t>
+  </si>
+  <si>
+    <t>go ahead and reenact</t>
+  </si>
+  <si>
+    <t>hey so go ahead and shake it out</t>
+  </si>
+  <si>
+    <t>you're moving right into the last round</t>
+  </si>
+  <si>
+    <t>we are almost about to start our workout</t>
+  </si>
+  <si>
+    <t>are you ready ready</t>
+  </si>
+  <si>
+    <t>get it done</t>
+  </si>
+  <si>
+    <t>we're gonna get it on today and you're gonna get it on at home</t>
+  </si>
+  <si>
+    <t>i know michaels gonna kill it</t>
+  </si>
+  <si>
+    <t>what we're here to put in work and that's really the headspace that you need to be and you are here to put in the work because you want a change with your body the way you get that changes by going 100 for the next 25 to 35 minutes through each one of these exercises three two and one great alright</t>
+  </si>
+  <si>
+    <t>so that concludes our stretch series</t>
+  </si>
+  <si>
+    <t>we're gonna get right into our first circuit (4 second silence) so let's get started with our first circuit</t>
+  </si>
+  <si>
+    <t>starting with a push up michael's gonna get into position and go each one of these exercises</t>
+  </si>
+  <si>
+    <t>you're doing for a total of thirty seconds</t>
+  </si>
+  <si>
+    <t>michael soon the advanced version which is a plyometric</t>
+  </si>
+  <si>
+    <t>push up for all of you advanced athletes out there</t>
+  </si>
+  <si>
+    <t>you can go ahead and do the same thing if you need to do push ups from your knees</t>
+  </si>
+  <si>
+    <t>that's fine too</t>
+  </si>
+  <si>
+    <t>just whatever is a hundred percent for you good</t>
+  </si>
+  <si>
+    <t>we're halfway there</t>
+  </si>
+  <si>
+    <t>you can also do a variation of both like michael's gonna do (2 second silence) good we have 5 4 3 2 1</t>
+  </si>
+  <si>
+    <t>good room right into our pull ups</t>
+  </si>
+  <si>
+    <t>mom's gonna go right over to the pull up bar not taking a lot of rest between these exercises perfect getting us chin all the way over the bar</t>
+  </si>
+  <si>
+    <t>perfect and again</t>
+  </si>
+  <si>
+    <t>if you're doing pull ups at home you can do pull ups that are just bodyweight or you can also use a resistance band using a resistance band will hopefully help build you up to doing just bodyweight good perfect (4 second silence) and 5 4 3 2 1</t>
+  </si>
+  <si>
+    <t>good right over to squat jumps right over to his mat and let's go good so he's coming down just to 90 degrees and exploding up off the ground and again with these exercises along with any exercise in this workout</t>
+  </si>
+  <si>
+    <t>if you need to take a brief pause during the 30 seconds take a deep breath</t>
+  </si>
+  <si>
+    <t>that's fine the thing that's most important is that you're pushing a hundred percent</t>
+  </si>
+  <si>
+    <t>whatever that means for you so we are halfway there michaels legs</t>
+  </si>
+  <si>
+    <t>i'm sure are already burning</t>
+  </si>
+  <si>
+    <t>six five four three two one good right down into our push ups here we go thirty seconds</t>
+  </si>
+  <si>
+    <t>remember guys as many reps as possible in these 30 seconds</t>
+  </si>
+  <si>
+    <t>don't pace yourself out if you need to go and then rest go ten reps</t>
+  </si>
+  <si>
+    <t>that's fine good fifteen more seconds</t>
+  </si>
+  <si>
+    <t>the triceps should be burning</t>
+  </si>
+  <si>
+    <t>you should be feeling this in your chest you should be feeling this in your core</t>
+  </si>
+  <si>
+    <t>perfect (2 second silence)</t>
+  </si>
+  <si>
+    <t>good and five four three two one perfect or right back up on our feet over to our pull ups right away</t>
+  </si>
+  <si>
+    <t>he's taking no rest</t>
+  </si>
+  <si>
+    <t>he's in beast mode right now</t>
+  </si>
+  <si>
+    <t>let's go good for</t>
+  </si>
+  <si>
+    <t>i think he's going to get at least 15 out of these 30 seconds</t>
+  </si>
+  <si>
+    <t>good good (4 second silence) job</t>
+  </si>
+  <si>
+    <t>michael come on good there</t>
+  </si>
+  <si>
+    <t>we go ten nine eight seven six five four three two and one perfect</t>
+  </si>
+  <si>
+    <t>okay so you guys</t>
+  </si>
+  <si>
+    <t>it's okay to struggle at the end of each one of these exercises</t>
+  </si>
+  <si>
+    <t>the most important thing is you're pushing a hundred percent for you all right</t>
+  </si>
+  <si>
+    <t>let's get right into our squat jumps (5 second silence) halfway there (11 second silence) and last ten seconds</t>
+  </si>
+  <si>
+    <t>nine eight seven six five four three two and one perfect rick all right so michael the highly conditioned athlete so he's gonna take 15 seconds to get some water but for everybody at home if you need more than 15 seconds go ahead and just pause this video now (6 second silence) so michael is gonna get into position</t>
+  </si>
+  <si>
+    <t>we're going to start with a decline pushup</t>
+  </si>
+  <si>
+    <t>so you can do this</t>
+  </si>
+  <si>
+    <t>exercise off of anything</t>
+  </si>
+  <si>
+    <t>that has a ledge a secure ledge at home</t>
+  </si>
+  <si>
+    <t>you can use your bathtub a chair whatever you can find all right again each one of these exercises in this circuit</t>
+  </si>
+  <si>
+    <t>you're going to do for a total of thirty seconds</t>
+  </si>
+  <si>
+    <t>let's go 30 seconds</t>
+  </si>
+  <si>
+    <t>starts now good so guys by this point in time in your workout</t>
+  </si>
+  <si>
+    <t>you're gonna be tired</t>
+  </si>
+  <si>
+    <t>(2 second silence) stay focused stay in the zone and just do the best job that you can good</t>
+  </si>
+  <si>
+    <t>halfway there</t>
+  </si>
+  <si>
+    <t>(2 second silence) perfect about 10 seconds left</t>
+  </si>
+  <si>
+    <t>good ten nine eight seven six five four three two and one</t>
+  </si>
+  <si>
+    <t>okay perfect</t>
+  </si>
+  <si>
+    <t>i'll move right onto our dumbbell row</t>
+  </si>
+  <si>
+    <t>michael's gonna go get his set of dumbbells</t>
+  </si>
+  <si>
+    <t>you guys get yours you can also do this exercise using the resistance pamuk all right so again 30 seconds</t>
+  </si>
+  <si>
+    <t>he's gonna get into position ready here</t>
+  </si>
+  <si>
+    <t>we go perfect so again</t>
+  </si>
+  <si>
+    <t>he's in a great position</t>
+  </si>
+  <si>
+    <t>he's got his back totally straight his glutes tight</t>
+  </si>
+  <si>
+    <t>he's got a nice bend in his knee</t>
+  </si>
+  <si>
+    <t>and that's exactly what you should be doing at home</t>
+  </si>
+  <si>
+    <t>make sure that you are clenching</t>
+  </si>
+  <si>
+    <t>the glutes because otherwise the low back is gonna take a lot of heat in this exercise</t>
+  </si>
+  <si>
+    <t>perfect we got ten seconds left</t>
+  </si>
+  <si>
+    <t>how you feeling she's gonna think he's killing it</t>
+  </si>
+  <si>
+    <t>good show you five seconds</t>
+  </si>
+  <si>
+    <t>left five four three two one time</t>
+  </si>
+  <si>
+    <t>let's move on to our next exercise</t>
+  </si>
+  <si>
+    <t>our bulgarian split squats</t>
+  </si>
+  <si>
+    <t>so michaels gonna go right back over to this bench</t>
+  </si>
+  <si>
+    <t>one leg is gonna skip</t>
+  </si>
+  <si>
+    <t>go up on the bench</t>
+  </si>
+  <si>
+    <t>the other one is gonna be at 90 degrees so we do 15 seconds on each leg here</t>
+  </si>
+  <si>
+    <t>we go good</t>
+  </si>
+  <si>
+    <t>he's coming all the way down to 90</t>
+  </si>
+  <si>
+    <t>i don't want you to pass that 90 degrees so if you do have a mirror then you can use while you do this exercise go ahead and use it if not just eyeball it</t>
+  </si>
+  <si>
+    <t>that knee should not be coming out over the toe</t>
+  </si>
+  <si>
+    <t>good switch 15 seconds switching legs</t>
+  </si>
+  <si>
+    <t>there we go perfect and again</t>
+  </si>
+  <si>
+    <t>his upper body is staying nice and straight all of his weight</t>
+  </si>
+  <si>
+    <t>he's placing in the heel and pushing straight up from the heel good in three two one perfect all right</t>
+  </si>
+  <si>
+    <t>so let's move on to our next round back into our decline pushup michael's ready hope</t>
+  </si>
+  <si>
+    <t>you guys are ready at home here</t>
+  </si>
+  <si>
+    <t>we go again guys</t>
+  </si>
+  <si>
+    <t>you want to get as many reps as you possibly can in these 30 seconds if you need to take a pause for a couple seconds and then keep going</t>
+  </si>
+  <si>
+    <t>that is fine</t>
+  </si>
+  <si>
+    <t>good so michael staying nice and straight</t>
+  </si>
+  <si>
+    <t>he's not letting his his torso drop down to the ground good</t>
+  </si>
+  <si>
+    <t>he's taking a slight pause here</t>
+  </si>
+  <si>
+    <t>we go</t>
+  </si>
+  <si>
+    <t>we're over halfway there</t>
+  </si>
+  <si>
+    <t>ten seconds left 10 9 8 7 6 5 4 3 2 1 perfect getting right into our dumbbell row get some breath and back into the body and let's get into position here</t>
+  </si>
+  <si>
+    <t>we go 30 seconds again</t>
+  </si>
+  <si>
+    <t>perfect perfect perfect form</t>
+  </si>
+  <si>
+    <t>he's not jerking</t>
+  </si>
+  <si>
+    <t>when you're doing this exercise you shouldn't be using your momentum to bring the weight up if you're doing that you're training out of ego</t>
+  </si>
+  <si>
+    <t>drop the weight down to weight that you can do without swinging your body around</t>
+  </si>
+  <si>
+    <t>that's how you sculpt beautiful muscles there we go 20 got 10 seconds left</t>
+  </si>
+  <si>
+    <t>i know you guys are fatigued</t>
+  </si>
+  <si>
+    <t>keep pushing through this</t>
+  </si>
+  <si>
+    <t>you are so close to being done with this workout</t>
+  </si>
+  <si>
+    <t>the worst of it is nearly over done time</t>
+  </si>
+  <si>
+    <t>moving right into our split squat again</t>
+  </si>
+  <si>
+    <t>good take a deep breath of air get into position</t>
+  </si>
+  <si>
+    <t>get your balance here</t>
+  </si>
+  <si>
+    <t>we go 15 seconds on this leg</t>
+  </si>
+  <si>
+    <t>perfect michael isn't perfect</t>
+  </si>
+  <si>
+    <t>this is exactly where your knees should be</t>
+  </si>
+  <si>
+    <t>it's not coming out over</t>
+  </si>
+  <si>
+    <t>the toe and all of his weight is right in that heel</t>
+  </si>
+  <si>
+    <t>good ten to one switch perfect right onto the other side</t>
+  </si>
+  <si>
+    <t>you feel that your booty</t>
+  </si>
+  <si>
+    <t>yeah there we go</t>
+  </si>
+  <si>
+    <t>(2 second silence) good 5 seconds left 5 4 3 2 1 killed it</t>
   </si>
 </sst>
 </file>
@@ -1119,7 +1413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D257"/>
+  <dimension ref="A1:D360"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1141,10 +1435,10 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>100</v>
+        <v>99.99991655349731</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1152,7 +1446,7 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>100</v>
@@ -1163,10 +1457,10 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>99.99997615814209</v>
+        <v>99.59973096847534</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1174,7 +1468,7 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
         <v>100</v>
@@ -1185,7 +1479,7 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6">
         <v>100</v>
@@ -1196,10 +1490,10 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>74.29695129394531</v>
+        <v>63.85796070098877</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1207,10 +1501,10 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>71.73812985420227</v>
+        <v>99.98385906219482</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1218,10 +1512,10 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>100</v>
+        <v>99.99982118606567</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1229,10 +1523,10 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>77.35967636108398</v>
+        <v>99.95416402816772</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1240,10 +1534,10 @@
         <v>12</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>99.99997615814209</v>
+        <v>99.99536275863647</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1254,7 +1548,7 @@
         <v>2</v>
       </c>
       <c r="D12">
-        <v>100</v>
+        <v>99.9994158744812</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1265,7 +1559,7 @@
         <v>2</v>
       </c>
       <c r="D13">
-        <v>100</v>
+        <v>99.05626773834229</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1276,7 +1570,7 @@
         <v>2</v>
       </c>
       <c r="D14">
-        <v>68.17975640296936</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1287,7 +1581,7 @@
         <v>2</v>
       </c>
       <c r="D15">
-        <v>100</v>
+        <v>99.94423985481262</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1298,7 +1592,7 @@
         <v>2</v>
       </c>
       <c r="D16">
-        <v>99.99892711639404</v>
+        <v>99.98741149902344</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1309,7 +1603,7 @@
         <v>2</v>
       </c>
       <c r="D17">
-        <v>99.99960660934448</v>
+        <v>99.97839331626892</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1320,7 +1614,7 @@
         <v>2</v>
       </c>
       <c r="D18">
-        <v>83.56537222862244</v>
+        <v>99.99997615814209</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1342,7 +1636,7 @@
         <v>2</v>
       </c>
       <c r="D20">
-        <v>99.99978542327881</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1353,7 +1647,7 @@
         <v>2</v>
       </c>
       <c r="D21">
-        <v>99.99997615814209</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1364,7 +1658,7 @@
         <v>2</v>
       </c>
       <c r="D22">
-        <v>99.93937015533447</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1375,7 +1669,7 @@
         <v>2</v>
       </c>
       <c r="D23">
-        <v>98.90754222869873</v>
+        <v>91.20603203773499</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1386,7 +1680,7 @@
         <v>2</v>
       </c>
       <c r="D24">
-        <v>99.99998807907104</v>
+        <v>99.27654266357422</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1408,7 +1702,7 @@
         <v>2</v>
       </c>
       <c r="D26">
-        <v>100</v>
+        <v>99.99901056289673</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1419,7 +1713,7 @@
         <v>2</v>
       </c>
       <c r="D27">
-        <v>99.99980926513672</v>
+        <v>99.99892711639404</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1430,7 +1724,7 @@
         <v>2</v>
       </c>
       <c r="D28">
-        <v>99.99990463256836</v>
+        <v>99.95403289794922</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1452,7 +1746,7 @@
         <v>2</v>
       </c>
       <c r="D30">
-        <v>100</v>
+        <v>99.99992847442627</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1463,7 +1757,7 @@
         <v>2</v>
       </c>
       <c r="D31">
-        <v>99.99998807907104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1485,7 +1779,7 @@
         <v>2</v>
       </c>
       <c r="D33">
-        <v>98.37700128555298</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1507,7 +1801,7 @@
         <v>2</v>
       </c>
       <c r="D35">
-        <v>100</v>
+        <v>99.99489784240723</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1540,7 +1834,7 @@
         <v>2</v>
       </c>
       <c r="D38">
-        <v>99.99927282333374</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1559,10 +1853,10 @@
         <v>41</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D40">
-        <v>99.96989965438843</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1573,7 +1867,7 @@
         <v>2</v>
       </c>
       <c r="D41">
-        <v>99.9983549118042</v>
+        <v>91.17655754089355</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1584,7 +1878,7 @@
         <v>1</v>
       </c>
       <c r="D42">
-        <v>95.96593379974365</v>
+        <v>86.04060411453247</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1595,7 +1889,7 @@
         <v>2</v>
       </c>
       <c r="D43">
-        <v>99.99995231628418</v>
+        <v>99.99792575836182</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1606,7 +1900,7 @@
         <v>2</v>
       </c>
       <c r="D44">
-        <v>99.99990463256836</v>
+        <v>98.44645857810974</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1617,7 +1911,7 @@
         <v>2</v>
       </c>
       <c r="D45">
-        <v>99.99974966049194</v>
+        <v>99.99959468841553</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1628,7 +1922,7 @@
         <v>2</v>
       </c>
       <c r="D46">
-        <v>99.99998807907104</v>
+        <v>99.76670742034912</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1636,10 +1930,10 @@
         <v>48</v>
       </c>
       <c r="C47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D47">
-        <v>100</v>
+        <v>98.98415207862854</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1650,7 +1944,7 @@
         <v>2</v>
       </c>
       <c r="D48">
-        <v>99.99839067459106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1661,7 +1955,7 @@
         <v>2</v>
       </c>
       <c r="D49">
-        <v>100</v>
+        <v>99.99814033508301</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1669,10 +1963,10 @@
         <v>51</v>
       </c>
       <c r="C50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D50">
-        <v>100</v>
+        <v>57.53048062324524</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1683,7 +1977,7 @@
         <v>2</v>
       </c>
       <c r="D51">
-        <v>99.99996423721313</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1694,7 +1988,7 @@
         <v>2</v>
       </c>
       <c r="D52">
-        <v>100</v>
+        <v>99.77827668190002</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1705,7 +1999,7 @@
         <v>2</v>
       </c>
       <c r="D53">
-        <v>99.99998807907104</v>
+        <v>99.99717473983765</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1727,7 +2021,7 @@
         <v>2</v>
       </c>
       <c r="D55">
-        <v>99.99998807907104</v>
+        <v>93.58055591583252</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1738,7 +2032,7 @@
         <v>2</v>
       </c>
       <c r="D56">
-        <v>100</v>
+        <v>99.96488094329834</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1749,7 +2043,7 @@
         <v>2</v>
       </c>
       <c r="D57">
-        <v>99.99998807907104</v>
+        <v>99.99988079071045</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1760,7 +2054,7 @@
         <v>2</v>
       </c>
       <c r="D58">
-        <v>99.9958872795105</v>
+        <v>99.99998807907104</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1771,7 +2065,7 @@
         <v>2</v>
       </c>
       <c r="D59">
-        <v>99.99998807907104</v>
+        <v>99.96582269668579</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1782,7 +2076,7 @@
         <v>2</v>
       </c>
       <c r="D60">
-        <v>99.99415874481201</v>
+        <v>99.99673366546631</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1793,7 +2087,7 @@
         <v>1</v>
       </c>
       <c r="D61">
-        <v>99.99996423721313</v>
+        <v>99.99997615814209</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1804,7 +2098,7 @@
         <v>2</v>
       </c>
       <c r="D62">
-        <v>99.99998807907104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1815,89 +2109,89 @@
         <v>2</v>
       </c>
       <c r="D63">
-        <v>99.99822378158569</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="C64">
         <v>2</v>
       </c>
       <c r="D64">
-        <v>100</v>
+        <v>99.27654266357422</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D65">
-        <v>100</v>
+        <v>99.99998807907104</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C66">
         <v>2</v>
       </c>
       <c r="D66">
-        <v>99.17632341384888</v>
+        <v>99.81285929679871</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C67">
         <v>2</v>
       </c>
       <c r="D67">
-        <v>99.89436268806458</v>
+        <v>95.0127124786377</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D68">
-        <v>98.61603975296021</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C69">
         <v>2</v>
       </c>
       <c r="D69">
-        <v>99.99998807907104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C70">
         <v>2</v>
       </c>
       <c r="D70">
-        <v>99.99995231628418</v>
+        <v>99.9998927116394</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C71">
         <v>2</v>
@@ -1908,29 +2202,29 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C72">
         <v>2</v>
       </c>
       <c r="D72">
-        <v>99.99998807907104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C73">
         <v>2</v>
       </c>
       <c r="D73">
-        <v>99.99998807907104</v>
+        <v>99.99848604202271</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C74">
         <v>2</v>
@@ -1941,205 +2235,205 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C75">
         <v>2</v>
       </c>
       <c r="D75">
-        <v>99.8740017414093</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C76">
         <v>1</v>
       </c>
       <c r="D76">
-        <v>99.99997615814209</v>
+        <v>83.17009210586548</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C77">
         <v>2</v>
       </c>
       <c r="D77">
-        <v>99.99996423721313</v>
+        <v>85.57644486427307</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C78">
         <v>2</v>
       </c>
       <c r="D78">
-        <v>99.99997615814209</v>
+        <v>99.99998807907104</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C79">
         <v>2</v>
       </c>
       <c r="D79">
-        <v>100</v>
+        <v>99.99983310699463</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C80">
         <v>2</v>
       </c>
       <c r="D80">
-        <v>100</v>
+        <v>99.99998807907104</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C81">
         <v>2</v>
       </c>
       <c r="D81">
-        <v>98.70562553405762</v>
+        <v>99.9998927116394</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C82">
         <v>2</v>
       </c>
       <c r="D82">
-        <v>99.94288086891174</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C83">
         <v>2</v>
       </c>
       <c r="D83">
-        <v>100</v>
+        <v>99.99997615814209</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D84">
-        <v>99.99969005584717</v>
+        <v>96.24502658843994</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C85">
         <v>2</v>
       </c>
       <c r="D85">
-        <v>99.99954700469971</v>
+        <v>99.98972415924072</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C86">
         <v>2</v>
       </c>
       <c r="D86">
-        <v>100</v>
+        <v>99.90192651748657</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C87">
         <v>2</v>
       </c>
       <c r="D87">
-        <v>99.73219037055969</v>
+        <v>89.71630334854126</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C88">
         <v>2</v>
       </c>
       <c r="D88">
-        <v>99.99996423721313</v>
+        <v>100</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C89">
         <v>2</v>
       </c>
       <c r="D89">
-        <v>99.99666213989258</v>
+        <v>99.99990463256836</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D90">
-        <v>99.99053478240967</v>
+        <v>93.75590682029724</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91">
         <v>2</v>
       </c>
       <c r="D91">
-        <v>99.99998807907104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D92">
-        <v>99.83615279197693</v>
+        <v>100</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C93">
         <v>2</v>
@@ -2150,7 +2444,7 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C94">
         <v>2</v>
@@ -2161,128 +2455,128 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C95">
         <v>2</v>
       </c>
       <c r="D95">
-        <v>99.99998807907104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C96">
         <v>2</v>
       </c>
       <c r="D96">
-        <v>99.9707043170929</v>
+        <v>99.99998807907104</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="C97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D97">
-        <v>78.83683443069458</v>
+        <v>99.99792575836182</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C98">
         <v>2</v>
       </c>
       <c r="D98">
-        <v>99.99969005584717</v>
+        <v>64.79889750480652</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C99">
         <v>2</v>
       </c>
       <c r="D99">
-        <v>100</v>
+        <v>99.69896078109741</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C100">
         <v>2</v>
       </c>
       <c r="D100">
-        <v>100</v>
+        <v>99.98373985290527</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C101">
         <v>2</v>
       </c>
       <c r="D101">
-        <v>99.74662065505981</v>
+        <v>99.99998807907104</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C102">
         <v>2</v>
       </c>
       <c r="D102">
-        <v>99.64814186096191</v>
+        <v>100</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C103">
         <v>2</v>
       </c>
       <c r="D103">
-        <v>99.99934434890747</v>
+        <v>99.99765157699585</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D104">
-        <v>99.99998807907104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D105">
-        <v>100</v>
+        <v>89.84289765357971</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C106">
         <v>2</v>
@@ -2293,51 +2587,51 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C107">
         <v>2</v>
       </c>
       <c r="D107">
-        <v>99.99979734420776</v>
+        <v>100</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="C108">
         <v>2</v>
       </c>
       <c r="D108">
-        <v>100</v>
+        <v>99.99992847442627</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C109">
         <v>2</v>
       </c>
       <c r="D109">
-        <v>99.90315437316895</v>
+        <v>100</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C110">
         <v>2</v>
       </c>
       <c r="D110">
-        <v>99.99802112579346</v>
+        <v>94.63766813278198</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C111">
         <v>2</v>
@@ -2348,40 +2642,40 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C112">
         <v>2</v>
       </c>
       <c r="D112">
-        <v>100</v>
+        <v>99.4652271270752</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C113">
         <v>2</v>
       </c>
       <c r="D113">
-        <v>100</v>
+        <v>99.94208812713623</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C114">
         <v>2</v>
       </c>
       <c r="D114">
-        <v>99.9990701675415</v>
+        <v>100</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C115">
         <v>2</v>
@@ -2392,117 +2686,117 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C116">
         <v>2</v>
       </c>
       <c r="D116">
-        <v>99.99964237213135</v>
+        <v>100</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C117">
         <v>2</v>
       </c>
       <c r="D117">
-        <v>99.99998807907104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D118">
-        <v>99.99990463256836</v>
+        <v>99.99727010726929</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C119">
         <v>2</v>
       </c>
       <c r="D119">
-        <v>100</v>
+        <v>99.9817430973053</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C120">
         <v>2</v>
       </c>
       <c r="D120">
-        <v>99.99991655349731</v>
+        <v>99.99880790710449</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C121">
         <v>2</v>
       </c>
       <c r="D121">
-        <v>100</v>
+        <v>99.79380965232849</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D122">
-        <v>99.99982118606567</v>
+        <v>97.76563048362732</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C123">
         <v>2</v>
       </c>
       <c r="D123">
-        <v>99.99998807907104</v>
+        <v>99.96527433395386</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C124">
         <v>2</v>
       </c>
       <c r="D124">
-        <v>99.99969005584717</v>
+        <v>99.9964714050293</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C125">
         <v>2</v>
       </c>
       <c r="D125">
-        <v>99.99997615814209</v>
+        <v>100</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C126">
         <v>2</v>
@@ -2513,29 +2807,29 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C127">
         <v>2</v>
       </c>
       <c r="D127">
-        <v>99.99991655349731</v>
+        <v>99.98775720596313</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C128">
         <v>2</v>
       </c>
       <c r="D128">
-        <v>99.99998807907104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C129">
         <v>2</v>
@@ -2546,18 +2840,18 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C130">
         <v>2</v>
       </c>
       <c r="D130">
-        <v>95.62875628471375</v>
+        <v>99.98084902763367</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C131">
         <v>2</v>
@@ -2568,18 +2862,18 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C132">
         <v>2</v>
       </c>
       <c r="D132">
-        <v>99.99953508377075</v>
+        <v>100</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C133">
         <v>2</v>
@@ -2590,18 +2884,18 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D134">
-        <v>100</v>
+        <v>65.15101790428162</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C135">
         <v>2</v>
@@ -2612,51 +2906,51 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C136">
         <v>2</v>
       </c>
       <c r="D136">
-        <v>99.6631920337677</v>
+        <v>99.73443150520325</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C137">
         <v>2</v>
       </c>
       <c r="D137">
-        <v>99.99932050704956</v>
+        <v>100</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C138">
         <v>2</v>
       </c>
       <c r="D138">
-        <v>99.99997615814209</v>
+        <v>100</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D139">
-        <v>95.8920419216156</v>
+        <v>100</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C140">
         <v>2</v>
@@ -2667,84 +2961,84 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C141">
         <v>2</v>
       </c>
       <c r="D141">
-        <v>99.99978542327881</v>
+        <v>100</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D142">
-        <v>90.11827111244202</v>
+        <v>97.68599271774292</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C143">
         <v>2</v>
       </c>
       <c r="D143">
-        <v>99.99970197677612</v>
+        <v>100</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D144">
-        <v>99.86878037452698</v>
+        <v>57.50892162322998</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>146</v>
+        <v>44</v>
       </c>
       <c r="C145">
         <v>2</v>
       </c>
       <c r="D145">
-        <v>99.99719858169556</v>
+        <v>99.99792575836182</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C146">
         <v>2</v>
       </c>
       <c r="D146">
-        <v>98.48223924636841</v>
+        <v>99.87307190895081</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C147">
         <v>2</v>
       </c>
       <c r="D147">
-        <v>99.99997615814209</v>
+        <v>100</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C148">
         <v>2</v>
@@ -2755,7 +3049,7 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C149">
         <v>2</v>
@@ -2766,73 +3060,73 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C150">
         <v>2</v>
       </c>
       <c r="D150">
-        <v>100</v>
+        <v>99.69411492347717</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C151">
         <v>2</v>
       </c>
       <c r="D151">
-        <v>99.99998807907104</v>
+        <v>99.99886751174927</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C152">
         <v>2</v>
       </c>
       <c r="D152">
-        <v>99.99935626983643</v>
+        <v>99.99988079071045</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C153">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D153">
-        <v>99.99933242797852</v>
+        <v>99.77638721466064</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C154">
         <v>2</v>
       </c>
       <c r="D154">
-        <v>99.9997615814209</v>
+        <v>100</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C155">
         <v>2</v>
       </c>
       <c r="D155">
-        <v>99.99995231628418</v>
+        <v>100</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C156">
         <v>2</v>
@@ -2843,18 +3137,18 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C157">
         <v>2</v>
       </c>
       <c r="D157">
-        <v>99.99998807907104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C158">
         <v>2</v>
@@ -2865,95 +3159,95 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C159">
         <v>2</v>
       </c>
       <c r="D159">
-        <v>100</v>
+        <v>94.98240947723389</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C160">
         <v>1</v>
       </c>
       <c r="D160">
-        <v>99.9839186668396</v>
+        <v>99.99978542327881</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C161">
         <v>2</v>
       </c>
       <c r="D161">
-        <v>99.9998927116394</v>
+        <v>100</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C162">
         <v>2</v>
       </c>
       <c r="D162">
-        <v>100</v>
+        <v>99.94274377822876</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C163">
         <v>2</v>
       </c>
       <c r="D163">
-        <v>100</v>
+        <v>99.91913437843323</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C164">
         <v>2</v>
       </c>
       <c r="D164">
-        <v>99.99998807907104</v>
+        <v>95.79620957374573</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C165">
         <v>2</v>
       </c>
       <c r="D165">
-        <v>100</v>
+        <v>99.58258867263794</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C166">
         <v>2</v>
       </c>
       <c r="D166">
-        <v>100</v>
+        <v>99.99184608459473</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C167">
         <v>2</v>
@@ -2964,7 +3258,7 @@
     </row>
     <row r="168" spans="1:4">
       <c r="A168" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C168">
         <v>2</v>
@@ -2975,62 +3269,62 @@
     </row>
     <row r="169" spans="1:4">
       <c r="A169" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C169">
         <v>2</v>
       </c>
       <c r="D169">
-        <v>99.99997615814209</v>
+        <v>97.96992540359497</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C170">
         <v>2</v>
       </c>
       <c r="D170">
-        <v>100</v>
+        <v>62.10367679595947</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C171">
         <v>2</v>
       </c>
       <c r="D171">
-        <v>99.99911785125732</v>
+        <v>100</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D172">
-        <v>60.23491024971008</v>
+        <v>100</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C173">
         <v>2</v>
       </c>
       <c r="D173">
-        <v>99.99996423721313</v>
+        <v>100</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C174">
         <v>2</v>
@@ -3041,117 +3335,117 @@
     </row>
     <row r="175" spans="1:4">
       <c r="A175" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C175">
         <v>2</v>
       </c>
       <c r="D175">
-        <v>99.99997615814209</v>
+        <v>100</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C176">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D176">
-        <v>99.98717308044434</v>
+        <v>99.99997615814209</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C177">
         <v>2</v>
       </c>
       <c r="D177">
-        <v>99.61115717887878</v>
+        <v>100</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C178">
         <v>2</v>
       </c>
       <c r="D178">
-        <v>99.99986886978149</v>
+        <v>93.69787573814392</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C179">
         <v>2</v>
       </c>
       <c r="D179">
-        <v>99.99978542327881</v>
+        <v>99.9482274055481</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C180">
         <v>2</v>
       </c>
       <c r="D180">
-        <v>100</v>
+        <v>99.83246922492981</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C181">
         <v>1</v>
       </c>
       <c r="D181">
-        <v>98.11734557151794</v>
+        <v>96.70064449310303</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C182">
         <v>2</v>
       </c>
       <c r="D182">
-        <v>100</v>
+        <v>99.98940229415894</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C183">
         <v>2</v>
       </c>
       <c r="D183">
-        <v>99.94761347770691</v>
+        <v>99.47027564048767</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C184">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D184">
-        <v>99.99998807907104</v>
+        <v>90.47756195068359</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C185">
         <v>2</v>
@@ -3162,117 +3456,117 @@
     </row>
     <row r="186" spans="1:4">
       <c r="A186" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C186">
         <v>2</v>
       </c>
       <c r="D186">
-        <v>99.96678829193115</v>
+        <v>69.81916427612305</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C187">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D187">
-        <v>99.99997615814209</v>
+        <v>99.99184608459473</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C188">
         <v>1</v>
       </c>
       <c r="D188">
-        <v>99.68830943107605</v>
+        <v>99.99591112136841</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D189">
-        <v>99.99996423721313</v>
+        <v>87.16611266136169</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C190">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D190">
-        <v>100</v>
+        <v>99.99992847442627</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C191">
         <v>2</v>
       </c>
       <c r="D191">
-        <v>99.99985694885254</v>
+        <v>100</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C192">
         <v>2</v>
       </c>
       <c r="D192">
-        <v>99.97499585151672</v>
+        <v>100</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C193">
         <v>2</v>
       </c>
       <c r="D193">
-        <v>99.99997615814209</v>
+        <v>99.99994039535522</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C194">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D194">
-        <v>99.99961853027344</v>
+        <v>94.52580809593201</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C195">
         <v>2</v>
       </c>
       <c r="D195">
-        <v>100</v>
+        <v>99.9950647354126</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C196">
         <v>2</v>
@@ -3283,51 +3577,51 @@
     </row>
     <row r="197" spans="1:4">
       <c r="A197" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D197">
-        <v>100</v>
+        <v>99.99995231628418</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C198">
         <v>2</v>
       </c>
       <c r="D198">
-        <v>100</v>
+        <v>95.50099968910217</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C199">
         <v>2</v>
       </c>
       <c r="D199">
-        <v>99.99998807907104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C200">
         <v>2</v>
       </c>
       <c r="D200">
-        <v>99.97935891151428</v>
+        <v>99.99997615814209</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C201">
         <v>2</v>
@@ -3338,18 +3632,18 @@
     </row>
     <row r="202" spans="1:4">
       <c r="A202" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C202">
         <v>2</v>
       </c>
       <c r="D202">
-        <v>99.99251365661621</v>
+        <v>100</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C203">
         <v>2</v>
@@ -3360,51 +3654,51 @@
     </row>
     <row r="204" spans="1:4">
       <c r="A204" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C204">
         <v>2</v>
       </c>
       <c r="D204">
-        <v>100</v>
+        <v>99.99996423721313</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C205">
         <v>2</v>
       </c>
       <c r="D205">
-        <v>99.99985694885254</v>
+        <v>99.99997615814209</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C206">
         <v>2</v>
       </c>
       <c r="D206">
-        <v>99.97120499610901</v>
+        <v>100</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C207">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D207">
-        <v>99.99997615814209</v>
+        <v>100</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C208">
         <v>2</v>
@@ -3415,40 +3709,40 @@
     </row>
     <row r="209" spans="1:4">
       <c r="A209" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C209">
         <v>2</v>
       </c>
       <c r="D209">
-        <v>99.99983310699463</v>
+        <v>100</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C210">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D210">
-        <v>99.99998807907104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C211">
         <v>2</v>
       </c>
       <c r="D211">
-        <v>99.950110912323</v>
+        <v>99.99721050262451</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C212">
         <v>2</v>
@@ -3459,18 +3753,18 @@
     </row>
     <row r="213" spans="1:4">
       <c r="A213" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C213">
         <v>2</v>
       </c>
       <c r="D213">
-        <v>100</v>
+        <v>99.99985694885254</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C214">
         <v>2</v>
@@ -3481,7 +3775,7 @@
     </row>
     <row r="215" spans="1:4">
       <c r="A215" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C215">
         <v>2</v>
@@ -3492,7 +3786,7 @@
     </row>
     <row r="216" spans="1:4">
       <c r="A216" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C216">
         <v>2</v>
@@ -3503,7 +3797,7 @@
     </row>
     <row r="217" spans="1:4">
       <c r="A217" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C217">
         <v>2</v>
@@ -3514,62 +3808,62 @@
     </row>
     <row r="218" spans="1:4">
       <c r="A218" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C218">
         <v>2</v>
       </c>
       <c r="D218">
-        <v>99.9944806098938</v>
+        <v>99.99953508377075</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C219">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D219">
-        <v>99.99933242797852</v>
+        <v>100</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C220">
         <v>2</v>
       </c>
       <c r="D220">
-        <v>99.99982118606567</v>
+        <v>99.99996423721313</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C221">
         <v>2</v>
       </c>
       <c r="D221">
-        <v>99.99988079071045</v>
+        <v>99.95408058166504</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C222">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D222">
-        <v>84.56353545188904</v>
+        <v>100</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C223">
         <v>2</v>
@@ -3580,51 +3874,51 @@
     </row>
     <row r="224" spans="1:4">
       <c r="A224" t="s">
-        <v>225</v>
+        <v>44</v>
       </c>
       <c r="C224">
         <v>2</v>
       </c>
       <c r="D224">
-        <v>99.97135996818542</v>
+        <v>99.99792575836182</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C225">
         <v>2</v>
       </c>
       <c r="D225">
-        <v>99.99741315841675</v>
+        <v>92.37944483757019</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C226">
         <v>2</v>
       </c>
       <c r="D226">
-        <v>99.99692440032959</v>
+        <v>100</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C227">
         <v>2</v>
       </c>
       <c r="D227">
-        <v>100</v>
+        <v>86.85622215270996</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C228">
         <v>2</v>
@@ -3635,7 +3929,7 @@
     </row>
     <row r="229" spans="1:4">
       <c r="A229" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C229">
         <v>2</v>
@@ -3646,7 +3940,7 @@
     </row>
     <row r="230" spans="1:4">
       <c r="A230" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C230">
         <v>2</v>
@@ -3657,219 +3951,219 @@
     </row>
     <row r="231" spans="1:4">
       <c r="A231" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C231">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D231">
-        <v>99.99998807907104</v>
+        <v>99.41297769546509</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="C232">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D232">
-        <v>99.9944806098938</v>
+        <v>93.53194236755371</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C233">
         <v>2</v>
       </c>
       <c r="D233">
-        <v>99.98773336410522</v>
+        <v>99.36066865921021</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C234">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D234">
-        <v>74.86447691917419</v>
+        <v>93.07566285133362</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C235">
         <v>2</v>
       </c>
       <c r="D235">
-        <v>99.99996423721313</v>
+        <v>100</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C236">
         <v>2</v>
       </c>
       <c r="D236">
-        <v>62.27043867111206</v>
+        <v>99.98495578765869</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C237">
         <v>2</v>
       </c>
       <c r="D237">
-        <v>99.99998807907104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C238">
         <v>2</v>
       </c>
       <c r="D238">
-        <v>99.43974018096924</v>
+        <v>100</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C239">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D239">
-        <v>99.9919056892395</v>
+        <v>100</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C240">
         <v>2</v>
       </c>
       <c r="D240">
-        <v>100</v>
+        <v>92.92408227920532</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C241">
         <v>2</v>
       </c>
       <c r="D241">
-        <v>99.99998807907104</v>
+        <v>95.48878073692322</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C242">
         <v>1</v>
       </c>
       <c r="D242">
-        <v>99.99994039535522</v>
+        <v>99.96243715286255</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C243">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D243">
-        <v>99.99995231628418</v>
+        <v>100</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C244">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D244">
-        <v>100</v>
+        <v>99.99878406524658</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C245">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D245">
-        <v>99.99997615814209</v>
+        <v>99.99905824661255</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C246">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D246">
-        <v>99.99997615814209</v>
+        <v>100</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C247">
         <v>2</v>
       </c>
       <c r="D247">
-        <v>87.09980249404907</v>
+        <v>98.7423300743103</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C248">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D248">
-        <v>100</v>
+        <v>92.91591048240662</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C249">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D249">
-        <v>100</v>
+        <v>98.48695993423462</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C250">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D250">
         <v>100</v>
@@ -3877,54 +4171,54 @@
     </row>
     <row r="251" spans="1:4">
       <c r="A251" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C251">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D251">
-        <v>99.99996423721313</v>
+        <v>100</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C252">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D252">
-        <v>100</v>
+        <v>98.00685048103333</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C253">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D253">
-        <v>99.99994039535522</v>
+        <v>100</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C254">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D254">
-        <v>100</v>
+        <v>99.99840259552002</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C255">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D255">
         <v>100</v>
@@ -3932,24 +4226,1157 @@
     </row>
     <row r="256" spans="1:4">
       <c r="A256" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C256">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D256">
-        <v>100</v>
+        <v>99.98894929885864</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" t="s">
+        <v>253</v>
+      </c>
+      <c r="C257">
+        <v>2</v>
+      </c>
+      <c r="D257">
+        <v>87.80549168586731</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" t="s">
+        <v>254</v>
+      </c>
+      <c r="C258">
+        <v>2</v>
+      </c>
+      <c r="D258">
+        <v>99.97498393058777</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" t="s">
+        <v>255</v>
+      </c>
+      <c r="C259">
+        <v>2</v>
+      </c>
+      <c r="D259">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" t="s">
+        <v>256</v>
+      </c>
+      <c r="C260">
+        <v>2</v>
+      </c>
+      <c r="D260">
+        <v>99.99822378158569</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" t="s">
         <v>257</v>
       </c>
-      <c r="C257">
+      <c r="C261">
+        <v>2</v>
+      </c>
+      <c r="D261">
+        <v>99.8731791973114</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" t="s">
+        <v>258</v>
+      </c>
+      <c r="C262">
+        <v>2</v>
+      </c>
+      <c r="D262">
+        <v>99.99990463256836</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" t="s">
+        <v>259</v>
+      </c>
+      <c r="C263">
+        <v>2</v>
+      </c>
+      <c r="D263">
+        <v>99.93674159049988</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" t="s">
+        <v>260</v>
+      </c>
+      <c r="C264">
+        <v>2</v>
+      </c>
+      <c r="D264">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" t="s">
+        <v>261</v>
+      </c>
+      <c r="C265">
+        <v>2</v>
+      </c>
+      <c r="D265">
+        <v>56.96842670440674</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" t="s">
+        <v>262</v>
+      </c>
+      <c r="C266">
+        <v>2</v>
+      </c>
+      <c r="D266">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" t="s">
+        <v>263</v>
+      </c>
+      <c r="C267">
+        <v>2</v>
+      </c>
+      <c r="D267">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" t="s">
+        <v>249</v>
+      </c>
+      <c r="C268">
+        <v>2</v>
+      </c>
+      <c r="D268">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" t="s">
+        <v>264</v>
+      </c>
+      <c r="C269">
+        <v>2</v>
+      </c>
+      <c r="D269">
+        <v>99.87170696258545</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" t="s">
+        <v>265</v>
+      </c>
+      <c r="C270">
+        <v>2</v>
+      </c>
+      <c r="D270">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" t="s">
+        <v>266</v>
+      </c>
+      <c r="C271">
+        <v>2</v>
+      </c>
+      <c r="D271">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" t="s">
+        <v>267</v>
+      </c>
+      <c r="C272">
+        <v>2</v>
+      </c>
+      <c r="D272">
+        <v>99.99986886978149</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" t="s">
+        <v>268</v>
+      </c>
+      <c r="C273">
+        <v>2</v>
+      </c>
+      <c r="D273">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" t="s">
+        <v>269</v>
+      </c>
+      <c r="C274">
+        <v>2</v>
+      </c>
+      <c r="D274">
+        <v>75.02485513687134</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" t="s">
+        <v>270</v>
+      </c>
+      <c r="C275">
+        <v>2</v>
+      </c>
+      <c r="D275">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" t="s">
+        <v>271</v>
+      </c>
+      <c r="C276">
+        <v>2</v>
+      </c>
+      <c r="D276">
+        <v>79.77195978164673</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" t="s">
+        <v>272</v>
+      </c>
+      <c r="C277">
+        <v>2</v>
+      </c>
+      <c r="D277">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" t="s">
+        <v>273</v>
+      </c>
+      <c r="C278">
+        <v>2</v>
+      </c>
+      <c r="D278">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" t="s">
+        <v>274</v>
+      </c>
+      <c r="C279">
+        <v>2</v>
+      </c>
+      <c r="D279">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" t="s">
+        <v>275</v>
+      </c>
+      <c r="C280">
+        <v>2</v>
+      </c>
+      <c r="D280">
+        <v>99.99881982803345</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" t="s">
+        <v>276</v>
+      </c>
+      <c r="C281">
+        <v>2</v>
+      </c>
+      <c r="D281">
+        <v>99.99878406524658</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" t="s">
+        <v>277</v>
+      </c>
+      <c r="C282">
+        <v>2</v>
+      </c>
+      <c r="D282">
+        <v>61.00413799285889</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" t="s">
+        <v>278</v>
+      </c>
+      <c r="C283">
+        <v>2</v>
+      </c>
+      <c r="D283">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" t="s">
+        <v>279</v>
+      </c>
+      <c r="C284">
+        <v>2</v>
+      </c>
+      <c r="D284">
+        <v>99.99991655349731</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" t="s">
+        <v>280</v>
+      </c>
+      <c r="C285">
+        <v>2</v>
+      </c>
+      <c r="D285">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" t="s">
+        <v>281</v>
+      </c>
+      <c r="C286">
         <v>1</v>
       </c>
-      <c r="D257">
+      <c r="D286">
+        <v>89.05922770500183</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" t="s">
+        <v>282</v>
+      </c>
+      <c r="C287">
+        <v>2</v>
+      </c>
+      <c r="D287">
+        <v>99.96669292449951</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" t="s">
+        <v>283</v>
+      </c>
+      <c r="C288">
+        <v>1</v>
+      </c>
+      <c r="D288">
+        <v>99.96600151062012</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" t="s">
+        <v>284</v>
+      </c>
+      <c r="C289">
+        <v>2</v>
+      </c>
+      <c r="D289">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" t="s">
+        <v>285</v>
+      </c>
+      <c r="C290">
+        <v>2</v>
+      </c>
+      <c r="D290">
+        <v>71.90955877304077</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" t="s">
+        <v>286</v>
+      </c>
+      <c r="C291">
+        <v>2</v>
+      </c>
+      <c r="D291">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" t="s">
+        <v>287</v>
+      </c>
+      <c r="C292">
+        <v>2</v>
+      </c>
+      <c r="D292">
+        <v>99.99412298202515</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" t="s">
+        <v>288</v>
+      </c>
+      <c r="C293">
+        <v>2</v>
+      </c>
+      <c r="D293">
+        <v>99.998939037323</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" t="s">
+        <v>289</v>
+      </c>
+      <c r="C294">
+        <v>2</v>
+      </c>
+      <c r="D294">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" t="s">
+        <v>290</v>
+      </c>
+      <c r="C295">
+        <v>2</v>
+      </c>
+      <c r="D295">
+        <v>99.25500154495239</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" t="s">
+        <v>291</v>
+      </c>
+      <c r="C296">
+        <v>2</v>
+      </c>
+      <c r="D296">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" t="s">
+        <v>292</v>
+      </c>
+      <c r="C297">
+        <v>2</v>
+      </c>
+      <c r="D297">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" t="s">
+        <v>293</v>
+      </c>
+      <c r="C298">
+        <v>2</v>
+      </c>
+      <c r="D298">
         <v>99.99998807907104</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" t="s">
+        <v>294</v>
+      </c>
+      <c r="C299">
+        <v>2</v>
+      </c>
+      <c r="D299">
+        <v>99.99998807907104</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" t="s">
+        <v>295</v>
+      </c>
+      <c r="C300">
+        <v>2</v>
+      </c>
+      <c r="D300">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" t="s">
+        <v>296</v>
+      </c>
+      <c r="C301">
+        <v>1</v>
+      </c>
+      <c r="D301">
+        <v>76.79429054260254</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" t="s">
+        <v>297</v>
+      </c>
+      <c r="C302">
+        <v>2</v>
+      </c>
+      <c r="D302">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303" t="s">
+        <v>298</v>
+      </c>
+      <c r="C303">
+        <v>2</v>
+      </c>
+      <c r="D303">
+        <v>99.99998807907104</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" t="s">
+        <v>299</v>
+      </c>
+      <c r="C304">
+        <v>2</v>
+      </c>
+      <c r="D304">
+        <v>89.85337615013123</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4">
+      <c r="A305" t="s">
+        <v>300</v>
+      </c>
+      <c r="C305">
+        <v>2</v>
+      </c>
+      <c r="D305">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4">
+      <c r="A306" t="s">
+        <v>301</v>
+      </c>
+      <c r="C306">
+        <v>2</v>
+      </c>
+      <c r="D306">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4">
+      <c r="A307" t="s">
+        <v>302</v>
+      </c>
+      <c r="C307">
+        <v>2</v>
+      </c>
+      <c r="D307">
+        <v>79.54851388931274</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4">
+      <c r="A308" t="s">
+        <v>303</v>
+      </c>
+      <c r="C308">
+        <v>1</v>
+      </c>
+      <c r="D308">
+        <v>86.71300411224365</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4">
+      <c r="A309" t="s">
+        <v>304</v>
+      </c>
+      <c r="C309">
+        <v>2</v>
+      </c>
+      <c r="D309">
+        <v>99.92139339447021</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4">
+      <c r="A310" t="s">
+        <v>305</v>
+      </c>
+      <c r="C310">
+        <v>2</v>
+      </c>
+      <c r="D310">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4">
+      <c r="A311" t="s">
+        <v>306</v>
+      </c>
+      <c r="C311">
+        <v>2</v>
+      </c>
+      <c r="D311">
+        <v>70.00020146369934</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4">
+      <c r="A312" t="s">
+        <v>307</v>
+      </c>
+      <c r="C312">
+        <v>2</v>
+      </c>
+      <c r="D312">
+        <v>99.99949932098389</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4">
+      <c r="A313" t="s">
+        <v>308</v>
+      </c>
+      <c r="C313">
+        <v>2</v>
+      </c>
+      <c r="D313">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4">
+      <c r="A314" t="s">
+        <v>309</v>
+      </c>
+      <c r="C314">
+        <v>2</v>
+      </c>
+      <c r="D314">
+        <v>99.99995231628418</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4">
+      <c r="A315" t="s">
+        <v>310</v>
+      </c>
+      <c r="C315">
+        <v>2</v>
+      </c>
+      <c r="D315">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4">
+      <c r="A316" t="s">
+        <v>311</v>
+      </c>
+      <c r="C316">
+        <v>2</v>
+      </c>
+      <c r="D316">
+        <v>99.98660087585449</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4">
+      <c r="A317" t="s">
+        <v>312</v>
+      </c>
+      <c r="C317">
+        <v>2</v>
+      </c>
+      <c r="D317">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4">
+      <c r="A318" t="s">
+        <v>313</v>
+      </c>
+      <c r="C318">
+        <v>2</v>
+      </c>
+      <c r="D318">
+        <v>99.97739195823669</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4">
+      <c r="A319" t="s">
+        <v>314</v>
+      </c>
+      <c r="C319">
+        <v>2</v>
+      </c>
+      <c r="D319">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4">
+      <c r="A320" t="s">
+        <v>315</v>
+      </c>
+      <c r="C320">
+        <v>2</v>
+      </c>
+      <c r="D320">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4">
+      <c r="A321" t="s">
+        <v>316</v>
+      </c>
+      <c r="C321">
+        <v>2</v>
+      </c>
+      <c r="D321">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4">
+      <c r="A322" t="s">
+        <v>317</v>
+      </c>
+      <c r="C322">
+        <v>2</v>
+      </c>
+      <c r="D322">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4">
+      <c r="A323" t="s">
+        <v>318</v>
+      </c>
+      <c r="C323">
+        <v>2</v>
+      </c>
+      <c r="D323">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4">
+      <c r="A324" t="s">
+        <v>319</v>
+      </c>
+      <c r="C324">
+        <v>2</v>
+      </c>
+      <c r="D324">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4">
+      <c r="A325" t="s">
+        <v>320</v>
+      </c>
+      <c r="C325">
+        <v>2</v>
+      </c>
+      <c r="D325">
+        <v>99.99998807907104</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4">
+      <c r="A326" t="s">
+        <v>321</v>
+      </c>
+      <c r="C326">
+        <v>2</v>
+      </c>
+      <c r="D326">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4">
+      <c r="A327" t="s">
+        <v>322</v>
+      </c>
+      <c r="C327">
+        <v>2</v>
+      </c>
+      <c r="D327">
+        <v>99.99929666519165</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4">
+      <c r="A328" t="s">
+        <v>323</v>
+      </c>
+      <c r="C328">
+        <v>2</v>
+      </c>
+      <c r="D328">
+        <v>99.99909400939941</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4">
+      <c r="A329" t="s">
+        <v>324</v>
+      </c>
+      <c r="C329">
+        <v>2</v>
+      </c>
+      <c r="D329">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4">
+      <c r="A330" t="s">
+        <v>325</v>
+      </c>
+      <c r="C330">
+        <v>2</v>
+      </c>
+      <c r="D330">
+        <v>99.99985694885254</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4">
+      <c r="A331" t="s">
+        <v>326</v>
+      </c>
+      <c r="C331">
+        <v>2</v>
+      </c>
+      <c r="D331">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4">
+      <c r="A332" t="s">
+        <v>327</v>
+      </c>
+      <c r="C332">
+        <v>2</v>
+      </c>
+      <c r="D332">
+        <v>99.99991655349731</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4">
+      <c r="A333" t="s">
+        <v>328</v>
+      </c>
+      <c r="C333">
+        <v>2</v>
+      </c>
+      <c r="D333">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4">
+      <c r="A334" t="s">
+        <v>329</v>
+      </c>
+      <c r="C334">
+        <v>2</v>
+      </c>
+      <c r="D334">
+        <v>99.99966621398926</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4">
+      <c r="A335" t="s">
+        <v>330</v>
+      </c>
+      <c r="C335">
+        <v>2</v>
+      </c>
+      <c r="D335">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4">
+      <c r="A336" t="s">
+        <v>331</v>
+      </c>
+      <c r="C336">
+        <v>2</v>
+      </c>
+      <c r="D336">
+        <v>99.99951124191284</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4">
+      <c r="A337" t="s">
+        <v>332</v>
+      </c>
+      <c r="C337">
+        <v>2</v>
+      </c>
+      <c r="D337">
+        <v>96.15328907966614</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4">
+      <c r="A338" t="s">
+        <v>333</v>
+      </c>
+      <c r="C338">
+        <v>2</v>
+      </c>
+      <c r="D338">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4">
+      <c r="A339" t="s">
+        <v>334</v>
+      </c>
+      <c r="C339">
+        <v>2</v>
+      </c>
+      <c r="D339">
+        <v>99.99997615814209</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4">
+      <c r="A340" t="s">
+        <v>335</v>
+      </c>
+      <c r="C340">
+        <v>2</v>
+      </c>
+      <c r="D340">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4">
+      <c r="A341" t="s">
+        <v>336</v>
+      </c>
+      <c r="C341">
+        <v>2</v>
+      </c>
+      <c r="D341">
+        <v>99.85645413398743</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4">
+      <c r="A342" t="s">
+        <v>337</v>
+      </c>
+      <c r="C342">
+        <v>2</v>
+      </c>
+      <c r="D342">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4">
+      <c r="A343" t="s">
+        <v>338</v>
+      </c>
+      <c r="C343">
+        <v>2</v>
+      </c>
+      <c r="D343">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4">
+      <c r="A344" t="s">
+        <v>339</v>
+      </c>
+      <c r="C344">
+        <v>2</v>
+      </c>
+      <c r="D344">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4">
+      <c r="A345" t="s">
+        <v>340</v>
+      </c>
+      <c r="C345">
+        <v>1</v>
+      </c>
+      <c r="D345">
+        <v>99.81094598770142</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4">
+      <c r="A346" t="s">
+        <v>341</v>
+      </c>
+      <c r="C346">
+        <v>2</v>
+      </c>
+      <c r="D346">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4">
+      <c r="A347" t="s">
+        <v>342</v>
+      </c>
+      <c r="C347">
+        <v>2</v>
+      </c>
+      <c r="D347">
+        <v>99.99899864196777</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4">
+      <c r="A348" t="s">
+        <v>343</v>
+      </c>
+      <c r="C348">
+        <v>2</v>
+      </c>
+      <c r="D348">
+        <v>99.90099668502808</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4">
+      <c r="A349" t="s">
+        <v>344</v>
+      </c>
+      <c r="C349">
+        <v>2</v>
+      </c>
+      <c r="D349">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4">
+      <c r="A350" t="s">
+        <v>345</v>
+      </c>
+      <c r="C350">
+        <v>2</v>
+      </c>
+      <c r="D350">
+        <v>99.31857585906982</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4">
+      <c r="A351" t="s">
+        <v>346</v>
+      </c>
+      <c r="C351">
+        <v>2</v>
+      </c>
+      <c r="D351">
+        <v>99.99998807907104</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4">
+      <c r="A352" t="s">
+        <v>347</v>
+      </c>
+      <c r="C352">
+        <v>2</v>
+      </c>
+      <c r="D352">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4">
+      <c r="A353" t="s">
+        <v>348</v>
+      </c>
+      <c r="C353">
+        <v>1</v>
+      </c>
+      <c r="D353">
+        <v>97.66478538513184</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4">
+      <c r="A354" t="s">
+        <v>349</v>
+      </c>
+      <c r="C354">
+        <v>2</v>
+      </c>
+      <c r="D354">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4">
+      <c r="A355" t="s">
+        <v>350</v>
+      </c>
+      <c r="C355">
+        <v>2</v>
+      </c>
+      <c r="D355">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4">
+      <c r="A356" t="s">
+        <v>351</v>
+      </c>
+      <c r="C356">
+        <v>2</v>
+      </c>
+      <c r="D356">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4">
+      <c r="A357" t="s">
+        <v>352</v>
+      </c>
+      <c r="C357">
+        <v>2</v>
+      </c>
+      <c r="D357">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4">
+      <c r="A358" t="s">
+        <v>353</v>
+      </c>
+      <c r="C358">
+        <v>2</v>
+      </c>
+      <c r="D358">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4">
+      <c r="A359" t="s">
+        <v>354</v>
+      </c>
+      <c r="C359">
+        <v>2</v>
+      </c>
+      <c r="D359">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4">
+      <c r="A360" t="s">
+        <v>355</v>
+      </c>
+      <c r="C360">
+        <v>2</v>
+      </c>
+      <c r="D360">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
